--- a/TestCaseTemplate.xlsx
+++ b/TestCaseTemplate.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BF471A-0539-41A5-ACA8-6B23AC5F0384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73751DC-20D4-4A0F-845A-4EDFDE932DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
     <sheet name="New Customer" sheetId="2" r:id="rId2"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId3"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId4"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Test Design" sheetId="7" r:id="rId3"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Customer'!$A$1:$H$29</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="171">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -360,13 +361,560 @@
   </si>
   <si>
     <t>An error message "Passwords not match " must be shown</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Balance Enquiry</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <r>
+      <t>Customer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t xml:space="preserve"> A customer can have multiple bank accounts. He can view balance of his accounts only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can view balance of all the customers who come under his supervision</t>
+    </r>
+  </si>
+  <si>
+    <t>Fund Transfer</t>
+  </si>
+  <si>
+    <r>
+      <t>Customer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t xml:space="preserve"> A customer can have transfer funds from his “own” account to any destination account.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can transfer funds from any source bank account to destination account</t>
+    </r>
+  </si>
+  <si>
+    <t>Mini Statement</t>
+  </si>
+  <si>
+    <r>
+      <t>Customer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t xml:space="preserve"> A customer can see mini-statement of only his “own” accounts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can see mini-statement of any account</t>
+    </r>
+  </si>
+  <si>
+    <t>Customized Statement</t>
+  </si>
+  <si>
+    <r>
+      <t>Customer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t xml:space="preserve"> A customer can see Customized- statement of only his “own” accounts</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can see Customized -statement of any account</t>
+    </r>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <r>
+      <t>Customer:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t xml:space="preserve"> A customer can change password of only his account.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can change password of only his account. He cannot change passwords of his customers</t>
+    </r>
+  </si>
+  <si>
+    <t>New Customer</t>
+  </si>
+  <si>
+    <t>New Account</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can add a new account for an existing customer.</t>
+    </r>
+  </si>
+  <si>
+    <t>Edit Account</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can add a edit account details for an existing account</t>
+    </r>
+  </si>
+  <si>
+    <t>Delete Customer</t>
+  </si>
+  <si>
+    <t>A customer can be deleted only if he/she has  no active current or saving accounts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can delete a customer.</t>
+    </r>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can deposit money into any account. Usually done when cash is deposited at a bank branch.</t>
+    </r>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can withdraw money from any account. Usually done when cash is withdrawn at a bank branch.</t>
+    </r>
+  </si>
+  <si>
+    <t>Applicable
+Roles</t>
+  </si>
+  <si>
+    <t>Description for Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Mini statement will show last 5 transactions of an account
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Manager: ● </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>A manager can add a new customer.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans"/>
+      </rPr>
+      <t>● A manager can edit details like address, email , telephone of a customer.</t>
+    </r>
+  </si>
+  <si>
+    <t>Currently system provides 2 types of accounts
+●Saving   ●Current
+A customer can have multiple saving accounts (one in his name , other in a joint name etc).
+He can have multiple current accounts for different companies he owns.
+Or he can have a multiple current and saving accounts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fields per </t>
+  </si>
+  <si>
+    <t>● Payers account no
+● Payees account no
+● Amount
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t>● Old Password
+● New Password
+● Confirm Password
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t>● Account No
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t>● Account No
+● From Date
+● To Date
+● Amount Lower Limit
+● Number Of Transaction
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t>● Customer Name
+● Gender
+● Date of Birth
+● Address
+● City
+● State
+● PIN
+● Telephone Number
+● Email Id
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t>● Customer Id
+● Account Type
+● Initial deposit
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t>● Account Number
+● Amount Deposit
+● Description
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t>● Account Number
+● Amount
+● Description
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t>● Account Number
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit customer </t>
+  </si>
+  <si>
+    <t>● Account Number
+● Submit
+● Reset
+Form after submitting Edit Account
+● Customer Id
+● Account Type (Drop Down - Saving or Current)
+● Balance
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t>● Customer Id
+● Submit
+● Reset
+Form after submitting Edit Customer
+● Customer Name
+● Gender
+● Date of Birth
+● Address
+● City
+● State
+● PIN
+● Telephone Number
+● Email Id
+● Submit
+● Reset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login </t>
+  </si>
+  <si>
+    <t>Mahmoud Fawzy</t>
+  </si>
+  <si>
+    <t>Added Test design sheet</t>
+  </si>
+  <si>
+    <t>T1 Customer Id - Customer ID is required
+T2 Customer Id - Special character are not allowed
+T3 Customer Id - Characters are not allowed
+T3.1 Customer Id - First character cannot have space</t>
+  </si>
+  <si>
+    <t>T4 Customer Name – Numbers are not allowed
+T5 Customer Name – Special characters are not allowed
+T6 Customer Name - Customer name must not be blank
+T7 Customer Name - First character cannot have space
+T8 Address - Address Field must not be blank
+T9 Address - First character can not have space
+T10 Address - Special characters are not allowed
+T11 City - Special character are not allowed
+T12 City - City Field must not be blank
+T13 City – Numbers are not allowed
+T14 City - First character can not have space
+T15 State – Numbers are not allowed
+T16 State - State must not be blank
+T17 State – Special characters are not allowed
+T17.1 State – First character cannot have space
+T18 Pin - Characters are not allowed
+T19 Pin - PIN Code must not be blank
+T20 Pin – Special characters are not allowed
+T21 Pin – PIN Code must have 6 Digits
+T22 Pin - First character can not have space
+T23 Telephone Number – Mobile no must not be blank
+T24 Telephone Number – Special character are not allowed
+T25 Telephone Number – Character are not allowed
+T26 Telephone Number - First character can not have space
+T27 Email : Email ID must not be blank
+T28 Email : Email ID is not valid
+T29 Email : First character can not have space</t>
+  </si>
+  <si>
+    <t>T30 Account No must not be blank
+T31 Special character are not allowed
+T32 Characters are not allowed</t>
+  </si>
+  <si>
+    <t>T33 Account No - Account Number must not be blank
+T34 Account No - Characters are not allowed
+T35 Account No - Special characters are not allowed
+T36 Amount Lower Limit – Special character are not allowed
+T37 Amount Lower Limit – Amount Lower Limit is required
+T38 Amount Lower Limit – Characters are not allowed
+T39 Number of Transaction – Special character are not allowed
+T40 Number of Transaction - Number of Transaction must not be blank
+T41 Number of Transaction – Character are not allowed</t>
+  </si>
+  <si>
+    <t>Delete Account Form</t>
+  </si>
+  <si>
+    <t>T42 Account No must not be blank
+T43 Special character are not allowed
+T44 Characters are not allowed</t>
+  </si>
+  <si>
+    <t>T45 Customer Id - Customer ID is required
+T46 Customer Id - Special character are not allowed
+T47 Customer Id - Characters are not allowed
+T47.1 Customer Id - First character cannot have space</t>
+  </si>
+  <si>
+    <t>T48 Account No must not be blank
+T49 Special character are not allowed
+T50 Characters are not allowed
+T51 Amount field must not be blank
+T52 Special characters are not allowed
+T53 Characters are not allowed
+T54 Description must not be blank</t>
+  </si>
+  <si>
+    <t>T55 Account No must not be blank
+T56 Special character are not allowed
+T57 Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Edit Customer form
+T58 Customer Id - Customer ID is required
+T59 Customer Id - Special character are not allowed
+T60 Customer Id - Characters are not allowed
+T60.1 Customer Id - First character can not have space
+Edit Customer
+T61 Address - Address Field must not be blank
+T62 Address - First character can not have space
+T63 Address - Special characters are not allowed
+T64 City - Special character are not allowed
+T65 City - City Field must not be blank
+T66 City – Numbers are not allowed
+T67 City - First character can not have space
+T68 State – Numbers are not allowed
+T69 State - State must not be blank
+T70 State – Special characters are not allowed
+T70.1 State – First character cannot have space
+T71 Pin - Characters are not allowed
+T71 Pin - PIN Code must not be blank
+T72 Pin – Special characters are not allowed
+T73 Pin – PIN Code must have 6 Digits
+T74 Pin - First character cannot have space
+T75 Telephone Number – Mobile no must not be blank
+T76 Telephone Number – Special character are not allowed
+T77 Telephone Number – Character are not allowed
+T78 Telephone Number - First character cannot have space
+T79 Email : Email ID must not be blank
+T80 Email : Email ID is not valid
+T81 Email : First character cannot have space</t>
+  </si>
+  <si>
+    <t>T82 Payers Account Number must not be blank
+T83 Special characters are not allowed
+T84 Characters are not allowed
+T85 Payees Account Number must not be blank
+T86 Special characters are not allowed
+T87 Characters are not allowed
+T88 Amount Field must not be blank
+T89 Characters are not allowedT90 Special characters are not allowed
+T91 Description cannot be blank</t>
+  </si>
+  <si>
+    <t>T92 User-ID must not be blank
+T93 Password must not be blank</t>
+  </si>
+  <si>
+    <t>T94 Account No must not be blank
+T95 Special character are not allowed
+T96 Characters are not allowed</t>
+  </si>
+  <si>
+    <t>T97 Old Password must not be blank
+T98 New Password must not be blank
+T99 Enter at-least one numeric value
+T100 Enter at-least one special character
+T101 Choose a difficult Password
+T102 Confirm Password must not be blank
+T103 Passwords do not Match</t>
+  </si>
+  <si>
+    <t>T104 Account No must not be blank
+T105 Special character are not allowed
+T106 Characters are not allowed
+T107 Amount Field must not be blank
+T108 Characters are not allowed
+T109 Special characters are not allowed
+T110 Description cannot be blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -404,8 +952,32 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +1014,14 @@
         <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -517,11 +1095,149 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -564,12 +1280,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -599,6 +1309,123 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,7 +1747,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -957,12 +1784,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -981,10 +1808,10 @@
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1003,10 +1830,10 @@
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1159,10 +1986,18 @@
     </row>
     <row r="10" spans="1:20" ht="12.75" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="C10" s="60" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="61">
+        <v>45312</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>155</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3139,7 +3974,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B2:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3152,21 +3987,21 @@
   </sheetPr>
   <dimension ref="A1:V101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="19" style="19" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="36" style="19" customWidth="1"/>
-    <col min="7" max="22" width="15.140625" style="19" customWidth="1"/>
-    <col min="23" max="16384" width="12.5703125" style="19"/>
+    <col min="1" max="1" width="11.140625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="19" style="17" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="36" style="17" customWidth="1"/>
+    <col min="7" max="22" width="15.140625" style="17" customWidth="1"/>
+    <col min="23" max="16384" width="12.5703125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" customFormat="1" ht="17.25" customHeight="1">
@@ -3210,2418 +4045,2418 @@
       <c r="V1" s="10"/>
     </row>
     <row r="2" spans="1:22" ht="27" customHeight="1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
     </row>
     <row r="3" spans="1:22" ht="27" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
     </row>
     <row r="4" spans="1:22" ht="27" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
     </row>
     <row r="5" spans="1:22" ht="27" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
     </row>
     <row r="6" spans="1:22" ht="27" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
     </row>
     <row r="7" spans="1:22" ht="27" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
     </row>
     <row r="8" spans="1:22" ht="27" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
     </row>
     <row r="9" spans="1:22" ht="27" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
     </row>
     <row r="10" spans="1:22" ht="27" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
     </row>
     <row r="11" spans="1:22" ht="27" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:22" ht="27" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:22" ht="27" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
     </row>
     <row r="14" spans="1:22" ht="27" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:22" ht="27" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
     </row>
     <row r="16" spans="1:22" ht="27" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
     </row>
     <row r="17" spans="1:22" ht="27" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
     </row>
     <row r="18" spans="1:22" ht="27" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="1:22" ht="27" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
     </row>
     <row r="20" spans="1:22" ht="27" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
     </row>
     <row r="21" spans="1:22" ht="27" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
     </row>
     <row r="22" spans="1:22" ht="27" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
     </row>
     <row r="23" spans="1:22" ht="27" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
     </row>
     <row r="24" spans="1:22" ht="27" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
     </row>
     <row r="25" spans="1:22" ht="27" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
     </row>
     <row r="26" spans="1:22" ht="27" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
     </row>
     <row r="27" spans="1:22" ht="27" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
     </row>
     <row r="28" spans="1:22" ht="27" customHeight="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
     </row>
     <row r="29" spans="1:22" ht="27" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="20"/>
     </row>
     <row r="30" spans="1:22" ht="27" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="20"/>
     </row>
     <row r="31" spans="1:22" ht="27" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
     </row>
     <row r="32" spans="1:22" ht="27" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="20"/>
     </row>
     <row r="33" spans="1:22" ht="27" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
     </row>
     <row r="34" spans="1:22" ht="27" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="16"/>
+      <c r="R34" s="16"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
     </row>
     <row r="35" spans="1:22" ht="27" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:22" ht="27" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
     </row>
     <row r="37" spans="1:22" ht="27" customHeight="1">
-      <c r="A37" s="25"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
     </row>
     <row r="38" spans="1:22" ht="27" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
     </row>
     <row r="39" spans="1:22" ht="27" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:22" ht="27" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="16"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22" ht="27" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="16"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
     </row>
     <row r="42" spans="1:22" ht="27" customHeight="1">
-      <c r="A42" s="25"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22" ht="27" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
     </row>
     <row r="44" spans="1:22" ht="27" customHeight="1">
-      <c r="A44" s="25"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
     </row>
     <row r="45" spans="1:22" ht="27" customHeight="1">
-      <c r="A45" s="25"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
     </row>
     <row r="46" spans="1:22" ht="27" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
     </row>
     <row r="47" spans="1:22" ht="27" customHeight="1">
-      <c r="A47" s="25"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
     </row>
     <row r="48" spans="1:22" ht="27" customHeight="1">
-      <c r="A48" s="25"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22" ht="27" customHeight="1">
-      <c r="A49" s="25"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:22" ht="27" customHeight="1">
-      <c r="A50" s="25"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22" ht="27" customHeight="1">
-      <c r="A51" s="25"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
     </row>
     <row r="52" spans="1:22" ht="27" customHeight="1">
-      <c r="A52" s="25"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
     </row>
     <row r="53" spans="1:22" ht="27" customHeight="1">
-      <c r="A53" s="25"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
     </row>
     <row r="54" spans="1:22" ht="27" customHeight="1">
-      <c r="A54" s="25"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
     </row>
     <row r="55" spans="1:22" ht="27" customHeight="1">
-      <c r="A55" s="25"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
     </row>
     <row r="56" spans="1:22" ht="27" customHeight="1">
-      <c r="A56" s="25"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
     </row>
     <row r="57" spans="1:22" ht="27" customHeight="1">
-      <c r="A57" s="25"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22" ht="27" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22" ht="27" customHeight="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22" ht="27" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22" ht="27" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22" ht="27" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22" ht="27" customHeight="1">
-      <c r="A63" s="25"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
+      <c r="A63" s="23"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22" ht="27" customHeight="1">
-      <c r="A64" s="25"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="27" customHeight="1">
-      <c r="A65" s="25"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
+      <c r="A65" s="23"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
     </row>
     <row r="66" spans="1:22" ht="27" customHeight="1">
-      <c r="A66" s="25"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
+      <c r="A66" s="23"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
     </row>
     <row r="67" spans="1:22" ht="27" customHeight="1">
-      <c r="A67" s="25"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
+      <c r="A67" s="23"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
     </row>
     <row r="68" spans="1:22" ht="27" customHeight="1">
-      <c r="A68" s="25"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
+      <c r="A68" s="23"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
     </row>
     <row r="69" spans="1:22" ht="27" customHeight="1">
-      <c r="A69" s="25"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-      <c r="V69" s="18"/>
+      <c r="A69" s="23"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
     </row>
     <row r="70" spans="1:22" ht="27" customHeight="1">
-      <c r="A70" s="25"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="18"/>
+      <c r="A70" s="23"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
     </row>
     <row r="71" spans="1:22" ht="27" customHeight="1">
-      <c r="A71" s="25"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
+      <c r="A71" s="23"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
     </row>
     <row r="72" spans="1:22" ht="27" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
+      <c r="A72" s="23"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
     </row>
     <row r="73" spans="1:22" ht="27" customHeight="1">
-      <c r="A73" s="25"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="18"/>
+      <c r="A73" s="23"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
     </row>
     <row r="74" spans="1:22" ht="27" customHeight="1">
-      <c r="A74" s="25"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
+      <c r="A74" s="23"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
     </row>
     <row r="75" spans="1:22" ht="27" customHeight="1">
-      <c r="A75" s="25"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
+      <c r="A75" s="23"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
     </row>
     <row r="76" spans="1:22" ht="27" customHeight="1">
-      <c r="A76" s="25"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
+      <c r="A76" s="23"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
     </row>
     <row r="77" spans="1:22" ht="27" customHeight="1">
-      <c r="A77" s="25"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="18"/>
-      <c r="V77" s="18"/>
+      <c r="A77" s="23"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
     </row>
     <row r="78" spans="1:22" ht="27" customHeight="1">
-      <c r="A78" s="25"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-      <c r="V78" s="18"/>
+      <c r="A78" s="23"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
     </row>
     <row r="79" spans="1:22" ht="27" customHeight="1">
-      <c r="A79" s="25"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
+      <c r="A79" s="23"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
     </row>
     <row r="80" spans="1:22" ht="27" customHeight="1">
-      <c r="A80" s="25"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
+      <c r="A80" s="23"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
     </row>
     <row r="81" spans="1:22" ht="27" customHeight="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
     </row>
     <row r="82" spans="1:22" ht="27" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="18"/>
-      <c r="V82" s="18"/>
+      <c r="A82" s="23"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
     </row>
     <row r="83" spans="1:22" ht="27" customHeight="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
+      <c r="A83" s="23"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
     </row>
     <row r="84" spans="1:22" ht="27" customHeight="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
+      <c r="A84" s="23"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
     </row>
     <row r="85" spans="1:22" ht="27" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
-      <c r="V85" s="18"/>
+      <c r="A85" s="23"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
     </row>
     <row r="86" spans="1:22" ht="27" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="18"/>
-      <c r="V86" s="18"/>
+      <c r="A86" s="23"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
     </row>
     <row r="87" spans="1:22" ht="27" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
+      <c r="A87" s="23"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
     </row>
     <row r="88" spans="1:22" ht="27" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
+      <c r="A88" s="23"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
     </row>
     <row r="89" spans="1:22" ht="27" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
+      <c r="A89" s="23"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="16"/>
     </row>
     <row r="90" spans="1:22" ht="27" customHeight="1">
-      <c r="A90" s="25"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
+      <c r="A90" s="23"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
     </row>
     <row r="91" spans="1:22" ht="27" customHeight="1">
-      <c r="A91" s="25"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="18"/>
-      <c r="V91" s="18"/>
+      <c r="A91" s="23"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
     </row>
     <row r="92" spans="1:22" ht="27" customHeight="1">
-      <c r="A92" s="25"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
+      <c r="A92" s="23"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
     </row>
     <row r="93" spans="1:22" ht="27" customHeight="1">
-      <c r="A93" s="25"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="18"/>
-      <c r="U93" s="18"/>
-      <c r="V93" s="18"/>
+      <c r="A93" s="23"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="16"/>
     </row>
     <row r="94" spans="1:22" ht="27" customHeight="1">
-      <c r="A94" s="25"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="T94" s="18"/>
-      <c r="U94" s="18"/>
-      <c r="V94" s="18"/>
+      <c r="A94" s="23"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
     </row>
     <row r="95" spans="1:22" ht="27" customHeight="1">
-      <c r="A95" s="25"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
-      <c r="T95" s="18"/>
-      <c r="U95" s="18"/>
-      <c r="V95" s="18"/>
+      <c r="A95" s="23"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
     </row>
     <row r="96" spans="1:22" ht="27" customHeight="1">
-      <c r="A96" s="25"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
-      <c r="V96" s="18"/>
+      <c r="A96" s="23"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
     </row>
     <row r="97" spans="1:22" ht="27" customHeight="1">
-      <c r="A97" s="25"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="18"/>
-      <c r="V97" s="18"/>
+      <c r="A97" s="23"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
     </row>
     <row r="98" spans="1:22" ht="27" customHeight="1">
-      <c r="A98" s="25"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
+      <c r="A98" s="23"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="16"/>
     </row>
     <row r="99" spans="1:22" ht="27" customHeight="1">
-      <c r="A99" s="25"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
+      <c r="A99" s="23"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
     </row>
     <row r="100" spans="1:22" ht="27" customHeight="1">
-      <c r="A100" s="25"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
+      <c r="A100" s="23"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
     </row>
     <row r="101" spans="1:22" ht="27" customHeight="1">
-      <c r="A101" s="25"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="18"/>
-      <c r="V101" s="18"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
@@ -5630,6 +6465,371 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8CD782-A754-4D5D-8CA8-D381E0EB2815}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="48" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" style="36" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" style="36" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="54" customWidth="1"/>
+    <col min="6" max="6" width="68.28515625" style="54" customWidth="1"/>
+    <col min="7" max="16384" width="38.42578125" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="50" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="A1" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="F1" s="51"/>
+    </row>
+    <row r="2" spans="1:6" s="47" customFormat="1" ht="130.5" customHeight="1" thickBot="1">
+      <c r="A2" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="47" customFormat="1" ht="358.5" customHeight="1" thickBot="1">
+      <c r="A3" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="34" customFormat="1" ht="48" customHeight="1">
+      <c r="A4" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="35" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A5" s="43"/>
+      <c r="B5" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="52"/>
+    </row>
+    <row r="6" spans="1:6" ht="62.25" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="33" customFormat="1" ht="62.25" customHeight="1" thickBot="1">
+      <c r="A7" s="41"/>
+      <c r="B7" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="1:6" s="47" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
+      <c r="A8" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="47" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
+      <c r="A9" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="F9" s="56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="47" customFormat="1" ht="103.5" customHeight="1" thickBot="1">
+      <c r="A10" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="47" customFormat="1" ht="154.5" customHeight="1" thickBot="1">
+      <c r="A11" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="38" customFormat="1" ht="384.75" customHeight="1" thickBot="1">
+      <c r="A12" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="34" customFormat="1" ht="66" customHeight="1">
+      <c r="A13" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="35" customFormat="1" ht="66" customHeight="1" thickBot="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+    </row>
+    <row r="15" spans="1:6" s="47" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A15" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="38" customFormat="1" ht="48" customHeight="1">
+      <c r="A16" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="35" customFormat="1" ht="48" customHeight="1" thickBot="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="41"/>
+      <c r="D17" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+    </row>
+    <row r="18" spans="1:6" s="34" customFormat="1" ht="54.75" customHeight="1">
+      <c r="A18" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="53" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="35" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
+      <c r="A19" s="43"/>
+      <c r="B19" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+    </row>
+    <row r="20" spans="1:6" s="47" customFormat="1" ht="99.75" customHeight="1" thickBot="1">
+      <c r="A20" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="45"/>
+      <c r="D20" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="48" customHeight="1">
+      <c r="B31" s="59"/>
+    </row>
+    <row r="35" spans="3:3" ht="48" customHeight="1">
+      <c r="C35" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5813,7 +7013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -5907,7 +7107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6147,7 +7347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/TestCaseTemplate.xlsx
+++ b/TestCaseTemplate.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73751DC-20D4-4A0F-845A-4EDFDE932DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AEB441-F9A1-40BB-BBAB-780F75200184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3990" yWindow="-16200" windowWidth="20595" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
     <sheet name="New Customer" sheetId="2" r:id="rId2"/>
-    <sheet name="Test Design" sheetId="7" r:id="rId3"/>
-    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId5"/>
-    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId6"/>
-    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Tracability Matrix" sheetId="8" r:id="rId3"/>
+    <sheet name="Test Data" sheetId="9" r:id="rId4"/>
+    <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="BalenceEnquiry" sheetId="4" state="hidden" r:id="rId6"/>
+    <sheet name="Inter Bank Fund  Transfer" sheetId="5" state="hidden" r:id="rId7"/>
+    <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Customer'!$A$1:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Customer'!$A$1:$I$33</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="191">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -363,558 +364,277 @@
     <t>An error message "Passwords not match " must be shown</t>
   </si>
   <si>
-    <t>Module Name</t>
-  </si>
-  <si>
-    <t>Balance Enquiry</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <r>
-      <t>Customer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t xml:space="preserve"> A customer can have multiple bank accounts. He can view balance of his accounts only</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can view balance of all the customers who come under his supervision</t>
-    </r>
-  </si>
-  <si>
-    <t>Fund Transfer</t>
-  </si>
-  <si>
-    <r>
-      <t>Customer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t xml:space="preserve"> A customer can have transfer funds from his “own” account to any destination account.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can transfer funds from any source bank account to destination account</t>
-    </r>
-  </si>
-  <si>
-    <t>Mini Statement</t>
-  </si>
-  <si>
-    <r>
-      <t>Customer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t xml:space="preserve"> A customer can see mini-statement of only his “own” accounts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can see mini-statement of any account</t>
-    </r>
-  </si>
-  <si>
-    <t>Customized Statement</t>
-  </si>
-  <si>
-    <r>
-      <t>Customer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t xml:space="preserve"> A customer can see Customized- statement of only his “own” accounts</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can see Customized -statement of any account</t>
-    </r>
-  </si>
-  <si>
-    <t>Change Password</t>
-  </si>
-  <si>
-    <r>
-      <t>Customer:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t xml:space="preserve"> A customer can change password of only his account.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can change password of only his account. He cannot change passwords of his customers</t>
-    </r>
-  </si>
-  <si>
     <t>New Customer</t>
   </si>
   <si>
     <t>New Account</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can add a new account for an existing customer.</t>
-    </r>
-  </si>
-  <si>
-    <t>Edit Account</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can add a edit account details for an existing account</t>
-    </r>
-  </si>
-  <si>
-    <t>Delete Customer</t>
-  </si>
-  <si>
-    <t>A customer can be deleted only if he/she has  no active current or saving accounts</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can delete a customer.</t>
-    </r>
-  </si>
-  <si>
-    <t>Deposit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can deposit money into any account. Usually done when cash is deposited at a bank branch.</t>
-    </r>
-  </si>
-  <si>
-    <t>Withdrawal</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can withdraw money from any account. Usually done when cash is withdrawn at a bank branch.</t>
-    </r>
-  </si>
-  <si>
-    <t>Applicable
-Roles</t>
-  </si>
-  <si>
-    <t>Description for Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Mini statement will show last 5 transactions of an account
+    <t>Mahmoud Fawzy</t>
+  </si>
+  <si>
+    <t>Added Test design sheet</t>
+  </si>
+  <si>
+    <t>Customer ID is required</t>
+  </si>
+  <si>
+    <t>Special character are not allowed</t>
+  </si>
+  <si>
+    <t>Characters are not allowed</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Numbers are not allowed</t>
+  </si>
+  <si>
+    <t>Special characters are not allowed</t>
+  </si>
+  <si>
+    <t>Customer name must not be blank</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Address Field must not be blank</t>
+  </si>
+  <si>
+    <t>First character can not have space</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>City Field must not be blank</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Numbers are not allowed</t>
+  </si>
+  <si>
+    <t>State must not be blank</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> First character cannot have space</t>
+  </si>
+  <si>
+    <t>Telephone Number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>TC_GB_Balance Enquiry_030</t>
+  </si>
+  <si>
+    <t>TC_GB_Balance Enquiry_031</t>
+  </si>
+  <si>
+    <t>TC_GB_Balance Enquiry_032</t>
+  </si>
+  <si>
+    <t>Account No must not be blank</t>
+  </si>
+  <si>
+    <t>Email ID is not valid</t>
+  </si>
+  <si>
+    <t>Email ID must not be blank</t>
+  </si>
+  <si>
+    <t>Character are not allowed</t>
+  </si>
+  <si>
+    <t>Mobile no must not be blank</t>
+  </si>
+  <si>
+    <t>PIN Code must have 6 Digits</t>
+  </si>
+  <si>
+    <t>PIN Code must not be blank</t>
+  </si>
+  <si>
+    <t>TC_GB_001</t>
+  </si>
+  <si>
+    <t>TC_GB_002</t>
+  </si>
+  <si>
+    <t>TC_GB_003</t>
+  </si>
+  <si>
+    <t>TC_GB_004</t>
+  </si>
+  <si>
+    <t>TC_GB_005</t>
+  </si>
+  <si>
+    <t>TC_GB_006</t>
+  </si>
+  <si>
+    <t>TC_GB_007</t>
+  </si>
+  <si>
+    <t>TC_GB_008</t>
+  </si>
+  <si>
+    <t>TC_GB_009</t>
+  </si>
+  <si>
+    <t>TC_GB_010</t>
+  </si>
+  <si>
+    <t>TC_GB_011</t>
+  </si>
+  <si>
+    <t>TC_GB_012</t>
+  </si>
+  <si>
+    <t>TC_GB_013</t>
+  </si>
+  <si>
+    <t>TC_GB_014</t>
+  </si>
+  <si>
+    <t>TC_GB_015</t>
+  </si>
+  <si>
+    <t>TC_GB_016</t>
+  </si>
+  <si>
+    <t>TC_GB_017</t>
+  </si>
+  <si>
+    <t>TC_GB_018</t>
+  </si>
+  <si>
+    <t>TC_GB_019</t>
+  </si>
+  <si>
+    <t>TC_GB_020</t>
+  </si>
+  <si>
+    <t>TC_GB_021</t>
+  </si>
+  <si>
+    <t>TC_GB_022</t>
+  </si>
+  <si>
+    <t>TC_GB_023</t>
+  </si>
+  <si>
+    <t>TC_GB_024</t>
+  </si>
+  <si>
+    <t>TC_GB_025</t>
+  </si>
+  <si>
+    <t>TC_GB_026</t>
+  </si>
+  <si>
+    <t>TC_GB_027</t>
+  </si>
+  <si>
+    <t>TC_GB_028</t>
+  </si>
+  <si>
+    <t>TC_GB_029</t>
+  </si>
+  <si>
+    <t>TC_GB_030</t>
+  </si>
+  <si>
+    <t>TC_GB_003.1</t>
+  </si>
+  <si>
+    <t>writing test cases in new account module</t>
+  </si>
+  <si>
+    <t>Test Number from Requierment</t>
+  </si>
+  <si>
+    <t>Test Cases Numner</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>T1 - T3.1</t>
+  </si>
+  <si>
+    <t>Test Case Title</t>
+  </si>
+  <si>
+    <t>Verify Customer Id Field</t>
+  </si>
+  <si>
+    <t>Test Case Discription</t>
+  </si>
+  <si>
+    <t>Inserting a valid Customer ID</t>
+  </si>
+  <si>
+    <t>Valid Customer Name</t>
+  </si>
+  <si>
+    <t>Vlad Dracula</t>
+  </si>
+  <si>
+    <t>Valid Customer Password</t>
+  </si>
+  <si>
+    <t>1429v&amp;D1476</t>
+  </si>
+  <si>
+    <t>1) Enter a valid customer ID
+2) Select Account Type (Savings)
+3) Enter Initial Deposit 5000
+4) Click submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Created Successfully </t>
+  </si>
+  <si>
+    <t>1) Enter a invalid customer ID
+2) Select Account Type (Savings)
+3) Enter Initial Deposit 5000
+4) Click submit</t>
+  </si>
+  <si>
+    <t>Inserting an invalid Customer ID
+(adding a special caracter to the ID)</t>
+  </si>
+  <si>
+    <t>Customer ID: "123986"</t>
+  </si>
+  <si>
+    <t>Customer ID: "12@986"</t>
+  </si>
+  <si>
+    <t>Customer ID: "1239k6"</t>
+  </si>
+  <si>
+    <t>Customer ID: " 23986"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error Message Displayed
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Manager: ● </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>A manager can add a new customer.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Droid Sans"/>
-      </rPr>
-      <t>● A manager can edit details like address, email , telephone of a customer.</t>
-    </r>
-  </si>
-  <si>
-    <t>Currently system provides 2 types of accounts
-●Saving   ●Current
-A customer can have multiple saving accounts (one in his name , other in a joint name etc).
-He can have multiple current accounts for different companies he owns.
-Or he can have a multiple current and saving accounts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fields per </t>
-  </si>
-  <si>
-    <t>● Payers account no
-● Payees account no
-● Amount
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Old Password
-● New Password
-● Confirm Password
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Account No
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Account No
-● From Date
-● To Date
-● Amount Lower Limit
-● Number Of Transaction
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Customer Name
-● Gender
-● Date of Birth
-● Address
-● City
-● State
-● PIN
-● Telephone Number
-● Email Id
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Customer Id
-● Account Type
-● Initial deposit
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Account Number
-● Amount Deposit
-● Description
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Account Number
-● Amount
-● Description
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Account Number
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit customer </t>
-  </si>
-  <si>
-    <t>● Account Number
-● Submit
-● Reset
-Form after submitting Edit Account
-● Customer Id
-● Account Type (Drop Down - Saving or Current)
-● Balance
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t>● Customer Id
-● Submit
-● Reset
-Form after submitting Edit Customer
-● Customer Name
-● Gender
-● Date of Birth
-● Address
-● City
-● State
-● PIN
-● Telephone Number
-● Email Id
-● Submit
-● Reset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login </t>
-  </si>
-  <si>
-    <t>Mahmoud Fawzy</t>
-  </si>
-  <si>
-    <t>Added Test design sheet</t>
-  </si>
-  <si>
-    <t>T1 Customer Id - Customer ID is required
-T2 Customer Id - Special character are not allowed
-T3 Customer Id - Characters are not allowed
-T3.1 Customer Id - First character cannot have space</t>
-  </si>
-  <si>
-    <t>T4 Customer Name – Numbers are not allowed
-T5 Customer Name – Special characters are not allowed
-T6 Customer Name - Customer name must not be blank
-T7 Customer Name - First character cannot have space
-T8 Address - Address Field must not be blank
-T9 Address - First character can not have space
-T10 Address - Special characters are not allowed
-T11 City - Special character are not allowed
-T12 City - City Field must not be blank
-T13 City – Numbers are not allowed
-T14 City - First character can not have space
-T15 State – Numbers are not allowed
-T16 State - State must not be blank
-T17 State – Special characters are not allowed
-T17.1 State – First character cannot have space
-T18 Pin - Characters are not allowed
-T19 Pin - PIN Code must not be blank
-T20 Pin – Special characters are not allowed
-T21 Pin – PIN Code must have 6 Digits
-T22 Pin - First character can not have space
-T23 Telephone Number – Mobile no must not be blank
-T24 Telephone Number – Special character are not allowed
-T25 Telephone Number – Character are not allowed
-T26 Telephone Number - First character can not have space
-T27 Email : Email ID must not be blank
-T28 Email : Email ID is not valid
-T29 Email : First character can not have space</t>
-  </si>
-  <si>
-    <t>T30 Account No must not be blank
-T31 Special character are not allowed
-T32 Characters are not allowed</t>
-  </si>
-  <si>
-    <t>T33 Account No - Account Number must not be blank
-T34 Account No - Characters are not allowed
-T35 Account No - Special characters are not allowed
-T36 Amount Lower Limit – Special character are not allowed
-T37 Amount Lower Limit – Amount Lower Limit is required
-T38 Amount Lower Limit – Characters are not allowed
-T39 Number of Transaction – Special character are not allowed
-T40 Number of Transaction - Number of Transaction must not be blank
-T41 Number of Transaction – Character are not allowed</t>
-  </si>
-  <si>
-    <t>Delete Account Form</t>
-  </si>
-  <si>
-    <t>T42 Account No must not be blank
-T43 Special character are not allowed
-T44 Characters are not allowed</t>
-  </si>
-  <si>
-    <t>T45 Customer Id - Customer ID is required
-T46 Customer Id - Special character are not allowed
-T47 Customer Id - Characters are not allowed
-T47.1 Customer Id - First character cannot have space</t>
-  </si>
-  <si>
-    <t>T48 Account No must not be blank
-T49 Special character are not allowed
-T50 Characters are not allowed
-T51 Amount field must not be blank
-T52 Special characters are not allowed
-T53 Characters are not allowed
-T54 Description must not be blank</t>
-  </si>
-  <si>
-    <t>T55 Account No must not be blank
-T56 Special character are not allowed
-T57 Characters are not allowed</t>
-  </si>
-  <si>
-    <t>Edit Customer form
-T58 Customer Id - Customer ID is required
-T59 Customer Id - Special character are not allowed
-T60 Customer Id - Characters are not allowed
-T60.1 Customer Id - First character can not have space
-Edit Customer
-T61 Address - Address Field must not be blank
-T62 Address - First character can not have space
-T63 Address - Special characters are not allowed
-T64 City - Special character are not allowed
-T65 City - City Field must not be blank
-T66 City – Numbers are not allowed
-T67 City - First character can not have space
-T68 State – Numbers are not allowed
-T69 State - State must not be blank
-T70 State – Special characters are not allowed
-T70.1 State – First character cannot have space
-T71 Pin - Characters are not allowed
-T71 Pin - PIN Code must not be blank
-T72 Pin – Special characters are not allowed
-T73 Pin – PIN Code must have 6 Digits
-T74 Pin - First character cannot have space
-T75 Telephone Number – Mobile no must not be blank
-T76 Telephone Number – Special character are not allowed
-T77 Telephone Number – Character are not allowed
-T78 Telephone Number - First character cannot have space
-T79 Email : Email ID must not be blank
-T80 Email : Email ID is not valid
-T81 Email : First character cannot have space</t>
-  </si>
-  <si>
-    <t>T82 Payers Account Number must not be blank
-T83 Special characters are not allowed
-T84 Characters are not allowed
-T85 Payees Account Number must not be blank
-T86 Special characters are not allowed
-T87 Characters are not allowed
-T88 Amount Field must not be blank
-T89 Characters are not allowedT90 Special characters are not allowed
-T91 Description cannot be blank</t>
-  </si>
-  <si>
-    <t>T92 User-ID must not be blank
-T93 Password must not be blank</t>
-  </si>
-  <si>
-    <t>T94 Account No must not be blank
-T95 Special character are not allowed
-T96 Characters are not allowed</t>
-  </si>
-  <si>
-    <t>T97 Old Password must not be blank
-T98 New Password must not be blank
-T99 Enter at-least one numeric value
-T100 Enter at-least one special character
-T101 Choose a difficult Password
-T102 Confirm Password must not be blank
-T103 Passwords do not Match</t>
-  </si>
-  <si>
-    <t>T104 Account No must not be blank
-T105 Special character are not allowed
-T106 Characters are not allowed
-T107 Amount Field must not be blank
-T108 Characters are not allowed
-T109 Special characters are not allowed
-T110 Description cannot be blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -953,31 +673,34 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Droid Sans"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="0"/>
+      <name val="Droid Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Droid Sans"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -998,12 +721,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
@@ -1016,12 +733,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1072,15 +807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1096,139 +822,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1237,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1259,19 +856,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1280,142 +868,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1424,7 +880,49 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1747,7 +1245,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -1756,7 +1254,7 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
     <col min="6" max="20" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1784,12 +1282,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1808,10 +1306,10 @@
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1830,10 +1328,10 @@
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1989,14 +1487,14 @@
       <c r="B10" s="4">
         <v>1.2</v>
       </c>
-      <c r="C10" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="D10" s="61">
+      <c r="C10" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="14">
         <v>45312</v>
       </c>
-      <c r="E10" s="60" t="s">
-        <v>155</v>
+      <c r="E10" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
@@ -2016,10 +1514,18 @@
     </row>
     <row r="11" spans="1:20" ht="12.75" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D11" s="14">
+        <v>45313</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>169</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -2038,10 +1544,10 @@
     </row>
     <row r="12" spans="1:20" ht="12.75" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3985,137 +3491,160 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="19" style="17" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="17" customWidth="1"/>
-    <col min="6" max="6" width="36" style="17" customWidth="1"/>
-    <col min="7" max="22" width="15.140625" style="17" customWidth="1"/>
-    <col min="23" max="16384" width="12.5703125" style="17"/>
+    <col min="1" max="1" width="26.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="36" style="12" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="12" customWidth="1"/>
+    <col min="9" max="23" width="15.140625" style="12" customWidth="1"/>
+    <col min="24" max="16384" width="12.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:23" s="25" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" ht="27" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+    </row>
+    <row r="2" spans="1:23" ht="26.25" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="H2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="I2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-    </row>
-    <row r="3" spans="1:22" ht="27" customHeight="1">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-    </row>
-    <row r="4" spans="1:22" ht="27" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" s="22" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+    </row>
+    <row r="4" spans="1:23" ht="57.75" customHeight="1">
+      <c r="A4" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>183</v>
+      </c>
       <c r="H4" s="19"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="19"/>
       <c r="J4" s="20"/>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
@@ -4129,17 +3658,32 @@
       <c r="T4" s="20"/>
       <c r="U4" s="20"/>
       <c r="V4" s="20"/>
-    </row>
-    <row r="5" spans="1:22" ht="27" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="20"/>
+      <c r="W4" s="20"/>
+    </row>
+    <row r="5" spans="1:23" ht="57.75" customHeight="1">
+      <c r="A5" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="20"/>
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
@@ -4153,17 +3697,30 @@
       <c r="T5" s="20"/>
       <c r="U5" s="20"/>
       <c r="V5" s="20"/>
-    </row>
-    <row r="6" spans="1:22" ht="27" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
+      <c r="W5" s="20"/>
+    </row>
+    <row r="6" spans="1:23" ht="57.75" customHeight="1">
+      <c r="A6" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>188</v>
+      </c>
       <c r="G6" s="19"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
       <c r="L6" s="20"/>
@@ -4177,17 +3734,30 @@
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
       <c r="V6" s="20"/>
-    </row>
-    <row r="7" spans="1:22" ht="27" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" ht="57.75" customHeight="1">
+      <c r="A7" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>189</v>
+      </c>
       <c r="G7" s="19"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
@@ -4201,41 +3771,51 @@
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
       <c r="V7" s="20"/>
-    </row>
-    <row r="8" spans="1:22" ht="27" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-    </row>
-    <row r="9" spans="1:22" ht="27" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" s="22" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+    </row>
+    <row r="9" spans="1:23" ht="27" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="E9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -4249,17 +3829,24 @@
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
       <c r="V9" s="20"/>
-    </row>
-    <row r="10" spans="1:22" ht="27" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="W9" s="20"/>
+    </row>
+    <row r="10" spans="1:23" ht="27" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19" t="s">
+        <v>114</v>
+      </c>
       <c r="E10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -4273,17 +3860,24 @@
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
       <c r="V10" s="20"/>
-    </row>
-    <row r="11" spans="1:22" ht="27" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="W10" s="20"/>
+    </row>
+    <row r="11" spans="1:23" ht="27" customHeight="1">
+      <c r="A11" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="E11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
@@ -4297,17 +3891,24 @@
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
       <c r="V11" s="20"/>
-    </row>
-    <row r="12" spans="1:22" ht="27" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="W11" s="20"/>
+    </row>
+    <row r="12" spans="1:23" ht="27" customHeight="1">
+      <c r="A12" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
@@ -4321,17 +3922,24 @@
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
       <c r="V12" s="20"/>
-    </row>
-    <row r="13" spans="1:22" ht="27" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="W12" s="20"/>
+    </row>
+    <row r="13" spans="1:23" ht="27" customHeight="1">
+      <c r="A13" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -4345,17 +3953,24 @@
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
       <c r="V13" s="20"/>
-    </row>
-    <row r="14" spans="1:22" ht="27" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="W13" s="20"/>
+    </row>
+    <row r="14" spans="1:23" ht="27" customHeight="1">
+      <c r="A14" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="11"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -4369,17 +3984,24 @@
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
       <c r="V14" s="20"/>
-    </row>
-    <row r="15" spans="1:22" ht="27" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="W14" s="20"/>
+    </row>
+    <row r="15" spans="1:23" ht="27" customHeight="1">
+      <c r="A15" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -4393,17 +4015,24 @@
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
-    </row>
-    <row r="16" spans="1:22" ht="27" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="W15" s="20"/>
+    </row>
+    <row r="16" spans="1:23" ht="27" customHeight="1">
+      <c r="A16" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="20"/>
       <c r="K16" s="20"/>
       <c r="L16" s="20"/>
@@ -4417,17 +4046,24 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
       <c r="V16" s="20"/>
-    </row>
-    <row r="17" spans="1:22" ht="27" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="W16" s="20"/>
+    </row>
+    <row r="17" spans="1:23" ht="27" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
@@ -4441,17 +4077,24 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
       <c r="V17" s="20"/>
-    </row>
-    <row r="18" spans="1:22" ht="27" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="W17" s="20"/>
+    </row>
+    <row r="18" spans="1:23" ht="27" customHeight="1">
+      <c r="A18" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>120</v>
+      </c>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
@@ -4465,17 +4108,24 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
       <c r="V18" s="20"/>
-    </row>
-    <row r="19" spans="1:22" ht="27" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="W18" s="20"/>
+    </row>
+    <row r="19" spans="1:23" ht="27" customHeight="1">
+      <c r="A19" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="E19" s="19"/>
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
@@ -4489,17 +4139,24 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
       <c r="V19" s="20"/>
-    </row>
-    <row r="20" spans="1:22" ht="27" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="W19" s="20"/>
+    </row>
+    <row r="20" spans="1:23" ht="27" customHeight="1">
+      <c r="A20" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="E20" s="19"/>
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="20"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -4513,17 +4170,24 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
       <c r="V20" s="20"/>
-    </row>
-    <row r="21" spans="1:22" ht="27" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="W20" s="20"/>
+    </row>
+    <row r="21" spans="1:23" ht="27" customHeight="1">
+      <c r="A21" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="E21" s="19"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="20"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
       <c r="L21" s="20"/>
@@ -4537,17 +4201,24 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
       <c r="V21" s="20"/>
-    </row>
-    <row r="22" spans="1:22" ht="27" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="W21" s="20"/>
+    </row>
+    <row r="22" spans="1:23" ht="27" customHeight="1">
+      <c r="A22" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="E22" s="19"/>
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
@@ -4561,17 +4232,24 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
       <c r="V22" s="20"/>
-    </row>
-    <row r="23" spans="1:22" ht="27" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="W22" s="20"/>
+    </row>
+    <row r="23" spans="1:23" ht="27" customHeight="1">
+      <c r="A23" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>125</v>
+      </c>
       <c r="E23" s="19"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="20"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
       <c r="L23" s="20"/>
@@ -4585,17 +4263,24 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
       <c r="V23" s="20"/>
-    </row>
-    <row r="24" spans="1:22" ht="27" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="W23" s="20"/>
+    </row>
+    <row r="24" spans="1:23" ht="27" customHeight="1">
+      <c r="A24" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -4609,17 +4294,24 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
       <c r="V24" s="20"/>
-    </row>
-    <row r="25" spans="1:22" ht="27" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+      <c r="W24" s="20"/>
+    </row>
+    <row r="25" spans="1:23" ht="27" customHeight="1">
+      <c r="A25" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>137</v>
+      </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -4633,17 +4325,24 @@
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
       <c r="V25" s="20"/>
-    </row>
-    <row r="26" spans="1:22" ht="27" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+      <c r="W25" s="20"/>
+    </row>
+    <row r="26" spans="1:23" ht="27" customHeight="1">
+      <c r="A26" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="E26" s="19"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="19"/>
       <c r="J26" s="20"/>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
@@ -4657,17 +4356,24 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
       <c r="V26" s="20"/>
-    </row>
-    <row r="27" spans="1:22" ht="27" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
+      <c r="W26" s="20"/>
+    </row>
+    <row r="27" spans="1:23" ht="27" customHeight="1">
+      <c r="A27" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>136</v>
+      </c>
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -4681,17 +4387,24 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
       <c r="V27" s="20"/>
-    </row>
-    <row r="28" spans="1:22" ht="27" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
+      <c r="W27" s="20"/>
+    </row>
+    <row r="28" spans="1:23" ht="27" customHeight="1">
+      <c r="A28" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="E28" s="19"/>
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="20"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -4705,17 +4418,24 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
       <c r="V28" s="20"/>
-    </row>
-    <row r="29" spans="1:22" ht="27" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="20"/>
+      <c r="W28" s="20"/>
+    </row>
+    <row r="29" spans="1:23" ht="27" customHeight="1">
+      <c r="A29" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="20"/>
+      <c r="D29" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
       <c r="L29" s="20"/>
@@ -4729,17 +4449,24 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
       <c r="V29" s="20"/>
-    </row>
-    <row r="30" spans="1:22" ht="27" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="20"/>
+      <c r="W29" s="20"/>
+    </row>
+    <row r="30" spans="1:23" ht="27" customHeight="1">
+      <c r="A30" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="D30" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
       <c r="J30" s="20"/>
       <c r="K30" s="20"/>
       <c r="L30" s="20"/>
@@ -4753,17 +4480,24 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
       <c r="V30" s="20"/>
-    </row>
-    <row r="31" spans="1:22" ht="27" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="20"/>
+      <c r="W30" s="20"/>
+    </row>
+    <row r="31" spans="1:23" ht="27" customHeight="1">
+      <c r="A31" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
       <c r="J31" s="20"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
@@ -4777,17 +4511,24 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
       <c r="V31" s="20"/>
-    </row>
-    <row r="32" spans="1:22" ht="27" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="20"/>
+      <c r="W31" s="20"/>
+    </row>
+    <row r="32" spans="1:23" ht="27" customHeight="1">
+      <c r="A32" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>126</v>
+      </c>
       <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
@@ -4801,17 +4542,24 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
       <c r="V32" s="20"/>
-    </row>
-    <row r="33" spans="1:22" ht="27" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="20"/>
+      <c r="W32" s="20"/>
+    </row>
+    <row r="33" spans="1:23" ht="27" customHeight="1">
+      <c r="A33" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
+      <c r="D33" s="20" t="s">
+        <v>133</v>
+      </c>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
       <c r="L33" s="20"/>
@@ -4825,2011 +4573,1915 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
       <c r="V33" s="20"/>
-    </row>
-    <row r="34" spans="1:22" ht="27" customHeight="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="T34" s="16"/>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-    </row>
-    <row r="35" spans="1:22" ht="27" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-      <c r="S35" s="16"/>
-      <c r="T35" s="16"/>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16"/>
-    </row>
-    <row r="36" spans="1:22" ht="27" customHeight="1">
-      <c r="A36" s="23"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="16"/>
-      <c r="R36" s="16"/>
-      <c r="S36" s="16"/>
-      <c r="T36" s="16"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-    </row>
-    <row r="37" spans="1:22" ht="27" customHeight="1">
-      <c r="A37" s="23"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="16"/>
-      <c r="R37" s="16"/>
-      <c r="S37" s="16"/>
-      <c r="T37" s="16"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-    </row>
-    <row r="38" spans="1:22" ht="27" customHeight="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="16"/>
-      <c r="R38" s="16"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="16"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-    </row>
-    <row r="39" spans="1:22" ht="27" customHeight="1">
-      <c r="A39" s="23"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
-      <c r="O39" s="16"/>
-      <c r="P39" s="16"/>
-      <c r="Q39" s="16"/>
-      <c r="R39" s="16"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-    </row>
-    <row r="40" spans="1:22" ht="27" customHeight="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
-      <c r="O40" s="16"/>
-      <c r="P40" s="16"/>
-      <c r="Q40" s="16"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="16"/>
-      <c r="T40" s="16"/>
-      <c r="U40" s="16"/>
-      <c r="V40" s="16"/>
-    </row>
-    <row r="41" spans="1:22" ht="27" customHeight="1">
-      <c r="A41" s="23"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="16"/>
-      <c r="Q41" s="16"/>
-      <c r="R41" s="16"/>
-      <c r="S41" s="16"/>
-      <c r="T41" s="16"/>
-      <c r="U41" s="16"/>
-      <c r="V41" s="16"/>
-    </row>
-    <row r="42" spans="1:22" ht="27" customHeight="1">
-      <c r="A42" s="23"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="16"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
-    </row>
-    <row r="43" spans="1:22" ht="27" customHeight="1">
-      <c r="A43" s="23"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
-      <c r="O43" s="16"/>
-      <c r="P43" s="16"/>
-      <c r="Q43" s="16"/>
-      <c r="R43" s="16"/>
-      <c r="S43" s="16"/>
-      <c r="T43" s="16"/>
-      <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
-    </row>
-    <row r="44" spans="1:22" ht="27" customHeight="1">
-      <c r="A44" s="23"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
-      <c r="S44" s="16"/>
-      <c r="T44" s="16"/>
-      <c r="U44" s="16"/>
-      <c r="V44" s="16"/>
-    </row>
-    <row r="45" spans="1:22" ht="27" customHeight="1">
-      <c r="A45" s="23"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
-      <c r="R45" s="16"/>
-      <c r="S45" s="16"/>
-      <c r="T45" s="16"/>
-      <c r="U45" s="16"/>
-      <c r="V45" s="16"/>
-    </row>
-    <row r="46" spans="1:22" ht="27" customHeight="1">
-      <c r="A46" s="23"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
-      <c r="S46" s="16"/>
-      <c r="T46" s="16"/>
-      <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
-    </row>
-    <row r="47" spans="1:22" ht="27" customHeight="1">
-      <c r="A47" s="23"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
-      <c r="R47" s="16"/>
-      <c r="S47" s="16"/>
-      <c r="T47" s="16"/>
-      <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
-    </row>
-    <row r="48" spans="1:22" ht="27" customHeight="1">
-      <c r="A48" s="23"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-    </row>
-    <row r="49" spans="1:22" ht="27" customHeight="1">
-      <c r="A49" s="23"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-    </row>
-    <row r="50" spans="1:22" ht="27" customHeight="1">
-      <c r="A50" s="23"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-    </row>
-    <row r="51" spans="1:22" ht="27" customHeight="1">
-      <c r="A51" s="23"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
-      <c r="O51" s="16"/>
-      <c r="P51" s="16"/>
-      <c r="Q51" s="16"/>
-      <c r="R51" s="16"/>
-      <c r="S51" s="16"/>
-      <c r="T51" s="16"/>
-      <c r="U51" s="16"/>
-      <c r="V51" s="16"/>
-    </row>
-    <row r="52" spans="1:22" ht="27" customHeight="1">
-      <c r="A52" s="23"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
-      <c r="O52" s="16"/>
-      <c r="P52" s="16"/>
-      <c r="Q52" s="16"/>
-      <c r="R52" s="16"/>
-      <c r="S52" s="16"/>
-      <c r="T52" s="16"/>
-      <c r="U52" s="16"/>
-      <c r="V52" s="16"/>
-    </row>
-    <row r="53" spans="1:22" ht="27" customHeight="1">
-      <c r="A53" s="23"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
-      <c r="O53" s="16"/>
-      <c r="P53" s="16"/>
-      <c r="Q53" s="16"/>
-      <c r="R53" s="16"/>
-      <c r="S53" s="16"/>
-      <c r="T53" s="16"/>
-      <c r="U53" s="16"/>
-      <c r="V53" s="16"/>
-    </row>
-    <row r="54" spans="1:22" ht="27" customHeight="1">
-      <c r="A54" s="23"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
-      <c r="S54" s="16"/>
-      <c r="T54" s="16"/>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-    </row>
-    <row r="55" spans="1:22" ht="27" customHeight="1">
-      <c r="A55" s="23"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
-      <c r="S55" s="16"/>
-      <c r="T55" s="16"/>
-      <c r="U55" s="16"/>
-      <c r="V55" s="16"/>
-    </row>
-    <row r="56" spans="1:22" ht="27" customHeight="1">
-      <c r="A56" s="23"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-      <c r="K56" s="16"/>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="16"/>
-      <c r="T56" s="16"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-    </row>
-    <row r="57" spans="1:22" ht="27" customHeight="1">
-      <c r="A57" s="23"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="16"/>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="16"/>
-      <c r="T57" s="16"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-    </row>
-    <row r="58" spans="1:22" ht="27" customHeight="1">
-      <c r="A58" s="23"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-    </row>
-    <row r="59" spans="1:22" ht="27" customHeight="1">
-      <c r="A59" s="23"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16"/>
-      <c r="K59" s="16"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
-      <c r="N59" s="16"/>
-      <c r="O59" s="16"/>
-      <c r="P59" s="16"/>
-      <c r="Q59" s="16"/>
-      <c r="R59" s="16"/>
-      <c r="S59" s="16"/>
-      <c r="T59" s="16"/>
-      <c r="U59" s="16"/>
-      <c r="V59" s="16"/>
-    </row>
-    <row r="60" spans="1:22" ht="27" customHeight="1">
-      <c r="A60" s="23"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16"/>
-      <c r="K60" s="16"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
-      <c r="N60" s="16"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="16"/>
-      <c r="Q60" s="16"/>
-      <c r="R60" s="16"/>
-      <c r="S60" s="16"/>
-      <c r="T60" s="16"/>
-      <c r="U60" s="16"/>
-      <c r="V60" s="16"/>
-    </row>
-    <row r="61" spans="1:22" ht="27" customHeight="1">
-      <c r="A61" s="23"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16"/>
-      <c r="K61" s="16"/>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
-      <c r="N61" s="16"/>
-      <c r="O61" s="16"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="16"/>
-      <c r="R61" s="16"/>
-      <c r="S61" s="16"/>
-      <c r="T61" s="16"/>
-      <c r="U61" s="16"/>
-      <c r="V61" s="16"/>
-    </row>
-    <row r="62" spans="1:22" ht="27" customHeight="1">
-      <c r="A62" s="23"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16"/>
-      <c r="K62" s="16"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
-      <c r="N62" s="16"/>
-      <c r="O62" s="16"/>
-      <c r="P62" s="16"/>
-      <c r="Q62" s="16"/>
-      <c r="R62" s="16"/>
-      <c r="S62" s="16"/>
-      <c r="T62" s="16"/>
-      <c r="U62" s="16"/>
-      <c r="V62" s="16"/>
-    </row>
-    <row r="63" spans="1:22" ht="27" customHeight="1">
-      <c r="A63" s="23"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
-      <c r="R63" s="16"/>
-      <c r="S63" s="16"/>
-      <c r="T63" s="16"/>
-      <c r="U63" s="16"/>
-      <c r="V63" s="16"/>
-    </row>
-    <row r="64" spans="1:22" ht="27" customHeight="1">
-      <c r="A64" s="23"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
-      <c r="S64" s="16"/>
-      <c r="T64" s="16"/>
-      <c r="U64" s="16"/>
-      <c r="V64" s="16"/>
-    </row>
-    <row r="65" spans="1:22" ht="27" customHeight="1">
-      <c r="A65" s="23"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="16"/>
-      <c r="R65" s="16"/>
-      <c r="S65" s="16"/>
-      <c r="T65" s="16"/>
-      <c r="U65" s="16"/>
-      <c r="V65" s="16"/>
-    </row>
-    <row r="66" spans="1:22" ht="27" customHeight="1">
-      <c r="A66" s="23"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16"/>
-      <c r="K66" s="16"/>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
-      <c r="N66" s="16"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="16"/>
-      <c r="Q66" s="16"/>
-      <c r="R66" s="16"/>
-      <c r="S66" s="16"/>
-      <c r="T66" s="16"/>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16"/>
-    </row>
-    <row r="67" spans="1:22" ht="27" customHeight="1">
-      <c r="A67" s="23"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-      <c r="R67" s="16"/>
-      <c r="S67" s="16"/>
-      <c r="T67" s="16"/>
-      <c r="U67" s="16"/>
-      <c r="V67" s="16"/>
-    </row>
-    <row r="68" spans="1:22" ht="27" customHeight="1">
-      <c r="A68" s="23"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
-      <c r="S68" s="16"/>
-      <c r="T68" s="16"/>
-      <c r="U68" s="16"/>
-      <c r="V68" s="16"/>
-    </row>
-    <row r="69" spans="1:22" ht="27" customHeight="1">
-      <c r="A69" s="23"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="16"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="16"/>
-      <c r="K69" s="16"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="16"/>
-      <c r="S69" s="16"/>
-      <c r="T69" s="16"/>
-      <c r="U69" s="16"/>
-      <c r="V69" s="16"/>
-    </row>
-    <row r="70" spans="1:22" ht="27" customHeight="1">
-      <c r="A70" s="23"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
-      <c r="N70" s="16"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="16"/>
-      <c r="Q70" s="16"/>
-      <c r="R70" s="16"/>
-      <c r="S70" s="16"/>
-      <c r="T70" s="16"/>
-      <c r="U70" s="16"/>
-      <c r="V70" s="16"/>
-    </row>
-    <row r="71" spans="1:22" ht="27" customHeight="1">
-      <c r="A71" s="23"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
-      <c r="K71" s="16"/>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
-      <c r="N71" s="16"/>
-      <c r="O71" s="16"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="16"/>
-      <c r="R71" s="16"/>
-      <c r="S71" s="16"/>
-      <c r="T71" s="16"/>
-      <c r="U71" s="16"/>
-      <c r="V71" s="16"/>
-    </row>
-    <row r="72" spans="1:22" ht="27" customHeight="1">
-      <c r="A72" s="23"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="16"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="16"/>
-      <c r="R72" s="16"/>
-      <c r="S72" s="16"/>
-      <c r="T72" s="16"/>
-      <c r="U72" s="16"/>
-      <c r="V72" s="16"/>
-    </row>
-    <row r="73" spans="1:22" ht="27" customHeight="1">
-      <c r="A73" s="23"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="16"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="16"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="16"/>
-      <c r="Q73" s="16"/>
-      <c r="R73" s="16"/>
-      <c r="S73" s="16"/>
-      <c r="T73" s="16"/>
-      <c r="U73" s="16"/>
-      <c r="V73" s="16"/>
-    </row>
-    <row r="74" spans="1:22" ht="27" customHeight="1">
-      <c r="A74" s="23"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
-      <c r="K74" s="16"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
-      <c r="N74" s="16"/>
-      <c r="O74" s="16"/>
-      <c r="P74" s="16"/>
-      <c r="Q74" s="16"/>
-      <c r="R74" s="16"/>
-      <c r="S74" s="16"/>
-      <c r="T74" s="16"/>
-      <c r="U74" s="16"/>
-      <c r="V74" s="16"/>
-    </row>
-    <row r="75" spans="1:22" ht="27" customHeight="1">
-      <c r="A75" s="23"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
-      <c r="K75" s="16"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
-      <c r="N75" s="16"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="16"/>
-      <c r="Q75" s="16"/>
-      <c r="R75" s="16"/>
-      <c r="S75" s="16"/>
-      <c r="T75" s="16"/>
-      <c r="U75" s="16"/>
-      <c r="V75" s="16"/>
-    </row>
-    <row r="76" spans="1:22" ht="27" customHeight="1">
-      <c r="A76" s="23"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
-      <c r="K76" s="16"/>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
-      <c r="N76" s="16"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="16"/>
-      <c r="Q76" s="16"/>
-      <c r="R76" s="16"/>
-      <c r="S76" s="16"/>
-      <c r="T76" s="16"/>
-      <c r="U76" s="16"/>
-      <c r="V76" s="16"/>
-    </row>
-    <row r="77" spans="1:22" ht="27" customHeight="1">
-      <c r="A77" s="23"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
-      <c r="K77" s="16"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
-      <c r="N77" s="16"/>
-      <c r="O77" s="16"/>
-      <c r="P77" s="16"/>
-      <c r="Q77" s="16"/>
-      <c r="R77" s="16"/>
-      <c r="S77" s="16"/>
-      <c r="T77" s="16"/>
-      <c r="U77" s="16"/>
-      <c r="V77" s="16"/>
-    </row>
-    <row r="78" spans="1:22" ht="27" customHeight="1">
-      <c r="A78" s="23"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-      <c r="I78" s="16"/>
-      <c r="J78" s="16"/>
-      <c r="K78" s="16"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
-      <c r="N78" s="16"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="16"/>
-      <c r="Q78" s="16"/>
-      <c r="R78" s="16"/>
-      <c r="S78" s="16"/>
-      <c r="T78" s="16"/>
-      <c r="U78" s="16"/>
-      <c r="V78" s="16"/>
-    </row>
-    <row r="79" spans="1:22" ht="27" customHeight="1">
-      <c r="A79" s="23"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-      <c r="I79" s="16"/>
-      <c r="J79" s="16"/>
-      <c r="K79" s="16"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
-      <c r="N79" s="16"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="16"/>
-      <c r="Q79" s="16"/>
-      <c r="R79" s="16"/>
-      <c r="S79" s="16"/>
-      <c r="T79" s="16"/>
-      <c r="U79" s="16"/>
-      <c r="V79" s="16"/>
-    </row>
-    <row r="80" spans="1:22" ht="27" customHeight="1">
-      <c r="A80" s="23"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
-      <c r="R80" s="16"/>
-      <c r="S80" s="16"/>
-      <c r="T80" s="16"/>
-      <c r="U80" s="16"/>
-      <c r="V80" s="16"/>
-    </row>
-    <row r="81" spans="1:22" ht="27" customHeight="1">
-      <c r="A81" s="23"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
-      <c r="R81" s="16"/>
-      <c r="S81" s="16"/>
-      <c r="T81" s="16"/>
-      <c r="U81" s="16"/>
-      <c r="V81" s="16"/>
-    </row>
-    <row r="82" spans="1:22" ht="27" customHeight="1">
-      <c r="A82" s="23"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-      <c r="R82" s="16"/>
-      <c r="S82" s="16"/>
-      <c r="T82" s="16"/>
-      <c r="U82" s="16"/>
-      <c r="V82" s="16"/>
-    </row>
-    <row r="83" spans="1:22" ht="27" customHeight="1">
-      <c r="A83" s="23"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-      <c r="R83" s="16"/>
-      <c r="S83" s="16"/>
-      <c r="T83" s="16"/>
-      <c r="U83" s="16"/>
-      <c r="V83" s="16"/>
-    </row>
-    <row r="84" spans="1:22" ht="27" customHeight="1">
-      <c r="A84" s="23"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
-      <c r="S84" s="16"/>
-      <c r="T84" s="16"/>
-      <c r="U84" s="16"/>
-      <c r="V84" s="16"/>
-    </row>
-    <row r="85" spans="1:22" ht="27" customHeight="1">
-      <c r="A85" s="23"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="16"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
-      <c r="N85" s="16"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="16"/>
-      <c r="Q85" s="16"/>
-      <c r="R85" s="16"/>
-      <c r="S85" s="16"/>
-      <c r="T85" s="16"/>
-      <c r="U85" s="16"/>
-      <c r="V85" s="16"/>
-    </row>
-    <row r="86" spans="1:22" ht="27" customHeight="1">
-      <c r="A86" s="23"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
-      <c r="S86" s="16"/>
-      <c r="T86" s="16"/>
-      <c r="U86" s="16"/>
-      <c r="V86" s="16"/>
-    </row>
-    <row r="87" spans="1:22" ht="27" customHeight="1">
-      <c r="A87" s="23"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="16"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
-      <c r="N87" s="16"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="16"/>
-      <c r="Q87" s="16"/>
-      <c r="R87" s="16"/>
-      <c r="S87" s="16"/>
-      <c r="T87" s="16"/>
-      <c r="U87" s="16"/>
-      <c r="V87" s="16"/>
-    </row>
-    <row r="88" spans="1:22" ht="27" customHeight="1">
-      <c r="A88" s="23"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="16"/>
-      <c r="Q88" s="16"/>
-      <c r="R88" s="16"/>
-      <c r="S88" s="16"/>
-      <c r="T88" s="16"/>
-      <c r="U88" s="16"/>
-      <c r="V88" s="16"/>
-    </row>
-    <row r="89" spans="1:22" ht="27" customHeight="1">
-      <c r="A89" s="23"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
-      <c r="S89" s="16"/>
-      <c r="T89" s="16"/>
-      <c r="U89" s="16"/>
-      <c r="V89" s="16"/>
-    </row>
-    <row r="90" spans="1:22" ht="27" customHeight="1">
-      <c r="A90" s="23"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="16"/>
-      <c r="Q90" s="16"/>
-      <c r="R90" s="16"/>
-      <c r="S90" s="16"/>
-      <c r="T90" s="16"/>
-      <c r="U90" s="16"/>
-      <c r="V90" s="16"/>
-    </row>
-    <row r="91" spans="1:22" ht="27" customHeight="1">
-      <c r="A91" s="23"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="16"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="16"/>
-      <c r="O91" s="16"/>
-      <c r="P91" s="16"/>
-      <c r="Q91" s="16"/>
-      <c r="R91" s="16"/>
-      <c r="S91" s="16"/>
-      <c r="T91" s="16"/>
-      <c r="U91" s="16"/>
-      <c r="V91" s="16"/>
-    </row>
-    <row r="92" spans="1:22" ht="27" customHeight="1">
-      <c r="A92" s="23"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="16"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
-      <c r="N92" s="16"/>
-      <c r="O92" s="16"/>
-      <c r="P92" s="16"/>
-      <c r="Q92" s="16"/>
-      <c r="R92" s="16"/>
-      <c r="S92" s="16"/>
-      <c r="T92" s="16"/>
-      <c r="U92" s="16"/>
-      <c r="V92" s="16"/>
-    </row>
-    <row r="93" spans="1:22" ht="27" customHeight="1">
-      <c r="A93" s="23"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="16"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
-      <c r="N93" s="16"/>
-      <c r="O93" s="16"/>
-      <c r="P93" s="16"/>
-      <c r="Q93" s="16"/>
-      <c r="R93" s="16"/>
-      <c r="S93" s="16"/>
-      <c r="T93" s="16"/>
-      <c r="U93" s="16"/>
-      <c r="V93" s="16"/>
-    </row>
-    <row r="94" spans="1:22" ht="27" customHeight="1">
-      <c r="A94" s="23"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="16"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
-      <c r="N94" s="16"/>
-      <c r="O94" s="16"/>
-      <c r="P94" s="16"/>
-      <c r="Q94" s="16"/>
-      <c r="R94" s="16"/>
-      <c r="S94" s="16"/>
-      <c r="T94" s="16"/>
-      <c r="U94" s="16"/>
-      <c r="V94" s="16"/>
-    </row>
-    <row r="95" spans="1:22" ht="27" customHeight="1">
-      <c r="A95" s="23"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="16"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
-      <c r="N95" s="16"/>
-      <c r="O95" s="16"/>
-      <c r="P95" s="16"/>
-      <c r="Q95" s="16"/>
-      <c r="R95" s="16"/>
-      <c r="S95" s="16"/>
-      <c r="T95" s="16"/>
-      <c r="U95" s="16"/>
-      <c r="V95" s="16"/>
-    </row>
-    <row r="96" spans="1:22" ht="27" customHeight="1">
-      <c r="A96" s="23"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="16"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
-      <c r="N96" s="16"/>
-      <c r="O96" s="16"/>
-      <c r="P96" s="16"/>
-      <c r="Q96" s="16"/>
-      <c r="R96" s="16"/>
-      <c r="S96" s="16"/>
-      <c r="T96" s="16"/>
-      <c r="U96" s="16"/>
-      <c r="V96" s="16"/>
-    </row>
-    <row r="97" spans="1:22" ht="27" customHeight="1">
-      <c r="A97" s="23"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
-      <c r="R97" s="16"/>
-      <c r="S97" s="16"/>
-      <c r="T97" s="16"/>
-      <c r="U97" s="16"/>
-      <c r="V97" s="16"/>
-    </row>
-    <row r="98" spans="1:22" ht="27" customHeight="1">
-      <c r="A98" s="23"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
-      <c r="R98" s="16"/>
-      <c r="S98" s="16"/>
-      <c r="T98" s="16"/>
-      <c r="U98" s="16"/>
-      <c r="V98" s="16"/>
-    </row>
-    <row r="99" spans="1:22" ht="27" customHeight="1">
-      <c r="A99" s="23"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
-      <c r="S99" s="16"/>
-      <c r="T99" s="16"/>
-      <c r="U99" s="16"/>
-      <c r="V99" s="16"/>
-    </row>
-    <row r="100" spans="1:22" ht="27" customHeight="1">
-      <c r="A100" s="23"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
-      <c r="S100" s="16"/>
-      <c r="T100" s="16"/>
-      <c r="U100" s="16"/>
-      <c r="V100" s="16"/>
-    </row>
-    <row r="101" spans="1:22" ht="27" customHeight="1">
-      <c r="A101" s="23"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="16"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
-      <c r="N101" s="16"/>
-      <c r="O101" s="16"/>
-      <c r="P101" s="16"/>
-      <c r="Q101" s="16"/>
-      <c r="R101" s="16"/>
-      <c r="S101" s="16"/>
-      <c r="T101" s="16"/>
-      <c r="U101" s="16"/>
-      <c r="V101" s="16"/>
+      <c r="W33" s="20"/>
+    </row>
+    <row r="34" spans="1:23" ht="27" customHeight="1">
+      <c r="A34" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="20"/>
+      <c r="W34" s="20"/>
+    </row>
+    <row r="35" spans="1:23" ht="27" customHeight="1">
+      <c r="A35" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="20"/>
+      <c r="W35" s="20"/>
+    </row>
+    <row r="36" spans="1:23" ht="27" customHeight="1">
+      <c r="A36" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="20"/>
+      <c r="W36" s="20"/>
+    </row>
+    <row r="37" spans="1:23" ht="27" customHeight="1">
+      <c r="A37" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="20"/>
+      <c r="W37" s="20"/>
+    </row>
+    <row r="38" spans="1:23" ht="27" customHeight="1">
+      <c r="A38" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+    </row>
+    <row r="39" spans="1:23" ht="27" customHeight="1">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+    </row>
+    <row r="40" spans="1:23" ht="27" customHeight="1">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
+      <c r="Q40" s="18"/>
+      <c r="R40" s="18"/>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="18"/>
+      <c r="V40" s="18"/>
+      <c r="W40" s="18"/>
+    </row>
+    <row r="41" spans="1:23" ht="27" customHeight="1">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="18"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="18"/>
+      <c r="V41" s="18"/>
+      <c r="W41" s="18"/>
+    </row>
+    <row r="42" spans="1:23" ht="27" customHeight="1">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="18"/>
+      <c r="V42" s="18"/>
+      <c r="W42" s="18"/>
+    </row>
+    <row r="43" spans="1:23" ht="27" customHeight="1">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+    </row>
+    <row r="44" spans="1:23" ht="27" customHeight="1">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+    </row>
+    <row r="45" spans="1:23" ht="27" customHeight="1">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+    </row>
+    <row r="46" spans="1:23" ht="27" customHeight="1">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="18"/>
+      <c r="R46" s="18"/>
+      <c r="S46" s="18"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="18"/>
+      <c r="V46" s="18"/>
+      <c r="W46" s="18"/>
+    </row>
+    <row r="47" spans="1:23" ht="27" customHeight="1">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="18"/>
+      <c r="S47" s="18"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
+      <c r="V47" s="18"/>
+      <c r="W47" s="18"/>
+    </row>
+    <row r="48" spans="1:23" ht="27" customHeight="1">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
+      <c r="V48" s="18"/>
+      <c r="W48" s="18"/>
+    </row>
+    <row r="49" spans="1:23" ht="27" customHeight="1">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
+      <c r="R49" s="18"/>
+      <c r="S49" s="18"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="18"/>
+      <c r="V49" s="18"/>
+      <c r="W49" s="18"/>
+    </row>
+    <row r="50" spans="1:23" ht="27" customHeight="1">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="18"/>
+    </row>
+    <row r="51" spans="1:23" ht="27" customHeight="1">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18"/>
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="18"/>
+    </row>
+    <row r="52" spans="1:23" ht="27" customHeight="1">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
+      <c r="Q52" s="18"/>
+      <c r="R52" s="18"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="18"/>
+      <c r="W52" s="18"/>
+    </row>
+    <row r="53" spans="1:23" ht="27" customHeight="1">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="18"/>
+      <c r="R53" s="18"/>
+      <c r="S53" s="18"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="18"/>
+      <c r="W53" s="18"/>
+    </row>
+    <row r="54" spans="1:23" ht="27" customHeight="1">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+    </row>
+    <row r="55" spans="1:23" ht="27" customHeight="1">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+    </row>
+    <row r="56" spans="1:23" ht="27" customHeight="1">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+    </row>
+    <row r="57" spans="1:23" ht="27" customHeight="1">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="18"/>
+      <c r="R57" s="18"/>
+      <c r="S57" s="18"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="18"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="18"/>
+    </row>
+    <row r="58" spans="1:23" ht="27" customHeight="1">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="R58" s="18"/>
+      <c r="S58" s="18"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+    </row>
+    <row r="59" spans="1:23" ht="27" customHeight="1">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
+      <c r="Q59" s="18"/>
+      <c r="R59" s="18"/>
+      <c r="S59" s="18"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="18"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="18"/>
+    </row>
+    <row r="60" spans="1:23" ht="27" customHeight="1">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
+      <c r="R60" s="18"/>
+      <c r="S60" s="18"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="18"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="18"/>
+    </row>
+    <row r="61" spans="1:23" ht="27" customHeight="1">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
+      <c r="Q61" s="18"/>
+      <c r="R61" s="18"/>
+      <c r="S61" s="18"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="18"/>
+      <c r="V61" s="18"/>
+      <c r="W61" s="18"/>
+    </row>
+    <row r="62" spans="1:23" ht="27" customHeight="1">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
+      <c r="Q62" s="18"/>
+      <c r="R62" s="18"/>
+      <c r="S62" s="18"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="18"/>
+      <c r="V62" s="18"/>
+      <c r="W62" s="18"/>
+    </row>
+    <row r="63" spans="1:23" ht="27" customHeight="1">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+    </row>
+    <row r="64" spans="1:23" ht="27" customHeight="1">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="18"/>
+      <c r="V64" s="18"/>
+      <c r="W64" s="18"/>
+    </row>
+    <row r="65" spans="1:23" ht="27" customHeight="1">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="18"/>
+      <c r="V65" s="18"/>
+      <c r="W65" s="18"/>
+    </row>
+    <row r="66" spans="1:23" ht="27" customHeight="1">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+    </row>
+    <row r="67" spans="1:23" ht="27" customHeight="1">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="18"/>
+      <c r="R67" s="18"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="18"/>
+      <c r="V67" s="18"/>
+      <c r="W67" s="18"/>
+    </row>
+    <row r="68" spans="1:23" ht="27" customHeight="1">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+    </row>
+    <row r="69" spans="1:23" ht="27" customHeight="1">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="W69" s="18"/>
+    </row>
+    <row r="70" spans="1:23" ht="27" customHeight="1">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+      <c r="O70" s="18"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="18"/>
+      <c r="R70" s="18"/>
+      <c r="S70" s="18"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="18"/>
+      <c r="V70" s="18"/>
+      <c r="W70" s="18"/>
+    </row>
+    <row r="71" spans="1:23" ht="27" customHeight="1">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="18"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+      <c r="O71" s="18"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="18"/>
+      <c r="R71" s="18"/>
+      <c r="S71" s="18"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="18"/>
+      <c r="V71" s="18"/>
+      <c r="W71" s="18"/>
+    </row>
+    <row r="72" spans="1:23" ht="27" customHeight="1">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="18"/>
+      <c r="Q72" s="18"/>
+      <c r="R72" s="18"/>
+      <c r="S72" s="18"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="18"/>
+      <c r="V72" s="18"/>
+      <c r="W72" s="18"/>
+    </row>
+    <row r="73" spans="1:23" ht="27" customHeight="1">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="18"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="18"/>
+      <c r="Q73" s="18"/>
+      <c r="R73" s="18"/>
+      <c r="S73" s="18"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="18"/>
+      <c r="V73" s="18"/>
+      <c r="W73" s="18"/>
+    </row>
+    <row r="74" spans="1:23" ht="27" customHeight="1">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="18"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="18"/>
+      <c r="Q74" s="18"/>
+      <c r="R74" s="18"/>
+      <c r="S74" s="18"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="18"/>
+      <c r="V74" s="18"/>
+      <c r="W74" s="18"/>
+    </row>
+    <row r="75" spans="1:23" ht="27" customHeight="1">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="18"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+      <c r="O75" s="18"/>
+      <c r="P75" s="18"/>
+      <c r="Q75" s="18"/>
+      <c r="R75" s="18"/>
+      <c r="S75" s="18"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="18"/>
+      <c r="V75" s="18"/>
+      <c r="W75" s="18"/>
+    </row>
+    <row r="76" spans="1:23" ht="27" customHeight="1">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="18"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+      <c r="O76" s="18"/>
+      <c r="P76" s="18"/>
+      <c r="Q76" s="18"/>
+      <c r="R76" s="18"/>
+      <c r="S76" s="18"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="18"/>
+      <c r="V76" s="18"/>
+      <c r="W76" s="18"/>
+    </row>
+    <row r="77" spans="1:23" ht="27" customHeight="1">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="18"/>
+      <c r="Q77" s="18"/>
+      <c r="R77" s="18"/>
+      <c r="S77" s="18"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="18"/>
+      <c r="V77" s="18"/>
+      <c r="W77" s="18"/>
+    </row>
+    <row r="78" spans="1:23" ht="27" customHeight="1">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="18"/>
+      <c r="Q78" s="18"/>
+      <c r="R78" s="18"/>
+      <c r="S78" s="18"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="18"/>
+      <c r="V78" s="18"/>
+      <c r="W78" s="18"/>
+    </row>
+    <row r="79" spans="1:23" ht="27" customHeight="1">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+    </row>
+    <row r="80" spans="1:23" ht="27" customHeight="1">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+    </row>
+    <row r="81" spans="1:23" ht="27" customHeight="1">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+    </row>
+    <row r="82" spans="1:23" ht="27" customHeight="1">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="18"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="18"/>
+      <c r="Q82" s="18"/>
+      <c r="R82" s="18"/>
+      <c r="S82" s="18"/>
+      <c r="T82" s="18"/>
+      <c r="U82" s="18"/>
+      <c r="V82" s="18"/>
+      <c r="W82" s="18"/>
+    </row>
+    <row r="83" spans="1:23" ht="27" customHeight="1">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="18"/>
+    </row>
+    <row r="84" spans="1:23" ht="27" customHeight="1">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="18"/>
+    </row>
+    <row r="85" spans="1:23" ht="27" customHeight="1">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="18"/>
+      <c r="Q85" s="18"/>
+      <c r="R85" s="18"/>
+      <c r="S85" s="18"/>
+      <c r="T85" s="18"/>
+      <c r="U85" s="18"/>
+      <c r="V85" s="18"/>
+      <c r="W85" s="18"/>
+    </row>
+    <row r="86" spans="1:23" ht="27" customHeight="1">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="18"/>
+      <c r="Q86" s="18"/>
+      <c r="R86" s="18"/>
+      <c r="S86" s="18"/>
+      <c r="T86" s="18"/>
+      <c r="U86" s="18"/>
+      <c r="V86" s="18"/>
+      <c r="W86" s="18"/>
+    </row>
+    <row r="87" spans="1:23" ht="27" customHeight="1">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
+      <c r="V87" s="18"/>
+      <c r="W87" s="18"/>
+    </row>
+    <row r="88" spans="1:23" ht="27" customHeight="1">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="18"/>
+    </row>
+    <row r="89" spans="1:23" ht="27" customHeight="1">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+      <c r="O89" s="18"/>
+      <c r="P89" s="18"/>
+      <c r="Q89" s="18"/>
+      <c r="R89" s="18"/>
+      <c r="S89" s="18"/>
+      <c r="T89" s="18"/>
+      <c r="U89" s="18"/>
+      <c r="V89" s="18"/>
+      <c r="W89" s="18"/>
+    </row>
+    <row r="90" spans="1:23" ht="27" customHeight="1">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="18"/>
+      <c r="Q90" s="18"/>
+      <c r="R90" s="18"/>
+      <c r="S90" s="18"/>
+      <c r="T90" s="18"/>
+      <c r="U90" s="18"/>
+      <c r="V90" s="18"/>
+      <c r="W90" s="18"/>
+    </row>
+    <row r="91" spans="1:23" ht="27" customHeight="1">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="18"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="18"/>
+      <c r="Q91" s="18"/>
+      <c r="R91" s="18"/>
+      <c r="S91" s="18"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
+      <c r="V91" s="18"/>
+      <c r="W91" s="18"/>
+    </row>
+    <row r="92" spans="1:23" ht="27" customHeight="1">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+    </row>
+    <row r="93" spans="1:23" ht="27" customHeight="1">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="18"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+      <c r="O93" s="18"/>
+      <c r="P93" s="18"/>
+      <c r="Q93" s="18"/>
+      <c r="R93" s="18"/>
+      <c r="S93" s="18"/>
+      <c r="T93" s="18"/>
+      <c r="U93" s="18"/>
+      <c r="V93" s="18"/>
+      <c r="W93" s="18"/>
+    </row>
+    <row r="94" spans="1:23" ht="27" customHeight="1">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="18"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="18"/>
+    </row>
+    <row r="95" spans="1:23" ht="27" customHeight="1">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="18"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="18"/>
+      <c r="Q95" s="18"/>
+      <c r="R95" s="18"/>
+      <c r="S95" s="18"/>
+      <c r="T95" s="18"/>
+      <c r="U95" s="18"/>
+      <c r="V95" s="18"/>
+      <c r="W95" s="18"/>
+    </row>
+    <row r="96" spans="1:23" ht="27" customHeight="1">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="18"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="18"/>
+      <c r="Q96" s="18"/>
+      <c r="R96" s="18"/>
+      <c r="S96" s="18"/>
+      <c r="T96" s="18"/>
+      <c r="U96" s="18"/>
+      <c r="V96" s="18"/>
+      <c r="W96" s="18"/>
+    </row>
+    <row r="97" spans="1:23" ht="27" customHeight="1">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="18"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+      <c r="O97" s="18"/>
+      <c r="P97" s="18"/>
+      <c r="Q97" s="18"/>
+      <c r="R97" s="18"/>
+      <c r="S97" s="18"/>
+      <c r="T97" s="18"/>
+      <c r="U97" s="18"/>
+      <c r="V97" s="18"/>
+      <c r="W97" s="18"/>
+    </row>
+    <row r="98" spans="1:23" ht="27" customHeight="1">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="18"/>
+      <c r="U98" s="18"/>
+      <c r="V98" s="18"/>
+      <c r="W98" s="18"/>
+    </row>
+    <row r="99" spans="1:23" ht="27" customHeight="1">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="18"/>
+      <c r="U99" s="18"/>
+      <c r="V99" s="18"/>
+      <c r="W99" s="18"/>
+    </row>
+    <row r="100" spans="1:23" ht="27" customHeight="1">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="18"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="18"/>
+      <c r="Q100" s="18"/>
+      <c r="R100" s="18"/>
+      <c r="S100" s="18"/>
+      <c r="T100" s="18"/>
+      <c r="U100" s="18"/>
+      <c r="V100" s="18"/>
+      <c r="W100" s="18"/>
+    </row>
+    <row r="101" spans="1:23" ht="27" customHeight="1">
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="18"/>
+      <c r="U101" s="18"/>
+      <c r="V101" s="18"/>
+      <c r="W101" s="18"/>
+    </row>
+    <row r="102" spans="1:23" ht="27" customHeight="1">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="18"/>
+      <c r="U102" s="18"/>
+      <c r="V102" s="18"/>
+      <c r="W102" s="18"/>
+    </row>
+    <row r="103" spans="1:23" ht="27" customHeight="1">
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="18"/>
+      <c r="U103" s="18"/>
+      <c r="V103" s="18"/>
+      <c r="W103" s="18"/>
+    </row>
+    <row r="104" spans="1:23" ht="27" customHeight="1">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="18"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="18"/>
+      <c r="Q104" s="18"/>
+      <c r="R104" s="18"/>
+      <c r="S104" s="18"/>
+      <c r="T104" s="18"/>
+      <c r="U104" s="18"/>
+      <c r="V104" s="18"/>
+      <c r="W104" s="18"/>
+    </row>
+    <row r="105" spans="1:23" ht="27" customHeight="1">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="18"/>
+      <c r="R105" s="18"/>
+      <c r="S105" s="18"/>
+      <c r="T105" s="18"/>
+      <c r="U105" s="18"/>
+      <c r="V105" s="18"/>
+      <c r="W105" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H29" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8CD782-A754-4D5D-8CA8-D381E0EB2815}">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553EA0DB-6884-4585-AA08-1D20E65D23E1}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38.42578125" defaultRowHeight="48" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="47.5703125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" style="36" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="68.28515625" style="54" customWidth="1"/>
-    <col min="7" max="16384" width="38.42578125" style="36"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="50" customFormat="1" ht="42" customHeight="1" thickBot="1">
-      <c r="A1" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="E1" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="F1" s="51"/>
-    </row>
-    <row r="2" spans="1:6" s="47" customFormat="1" ht="130.5" customHeight="1" thickBot="1">
-      <c r="A2" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="47" customFormat="1" ht="358.5" customHeight="1" thickBot="1">
-      <c r="A3" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="34" customFormat="1" ht="48" customHeight="1">
-      <c r="A4" s="42" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="35" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="52"/>
-    </row>
-    <row r="6" spans="1:6" ht="62.25" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="33" customFormat="1" ht="62.25" customHeight="1" thickBot="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-    </row>
-    <row r="8" spans="1:6" s="47" customFormat="1" ht="45.75" customHeight="1" thickBot="1">
-      <c r="A8" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="47" customFormat="1" ht="79.5" customHeight="1" thickBot="1">
-      <c r="A9" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D9" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="47" customFormat="1" ht="103.5" customHeight="1" thickBot="1">
-      <c r="A10" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="47" customFormat="1" ht="154.5" customHeight="1" thickBot="1">
-      <c r="A11" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="56" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="38" customFormat="1" ht="384.75" customHeight="1" thickBot="1">
-      <c r="A12" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="F12" s="57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="34" customFormat="1" ht="66" customHeight="1">
-      <c r="A13" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F13" s="53" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="35" customFormat="1" ht="66" customHeight="1" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-    </row>
-    <row r="15" spans="1:6" s="47" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A15" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="56" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="38" customFormat="1" ht="48" customHeight="1">
-      <c r="A16" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="35" customFormat="1" ht="48" customHeight="1" thickBot="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-    </row>
-    <row r="18" spans="1:6" s="34" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="53" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="35" customFormat="1" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A19" s="43"/>
-      <c r="B19" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-    </row>
-    <row r="20" spans="1:6" s="47" customFormat="1" ht="99.75" customHeight="1" thickBot="1">
-      <c r="A20" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="48" customHeight="1">
-      <c r="B31" s="59"/>
-    </row>
-    <row r="35" spans="3:3" ht="48" customHeight="1">
-      <c r="C35" s="59"/>
+      <c r="B2" s="28" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A16:A17"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66252117-F8FB-4A11-AFC8-A216FC8FEDB3}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="27.28515625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="24" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -6848,163 +6500,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7013,7 +6665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7032,73 +6684,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7107,7 +6759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7124,221 +6776,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="9">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>4</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="9">
         <v>5</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -7347,7 +6999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7364,124 +7016,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="10" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="10" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="10" t="s">
         <v>104</v>
       </c>
     </row>

--- a/TestCaseTemplate.xlsx
+++ b/TestCaseTemplate.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My-Python-Hub\GithubRepos\Guru99-SW-Tesing-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AEB441-F9A1-40BB-BBAB-780F75200184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08386D79-1FC6-4B24-A055-13CF0B8BC5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3990" yWindow="-16200" windowWidth="20595" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3990" yWindow="-16200" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
-    <sheet name="New Customer" sheetId="2" r:id="rId2"/>
+    <sheet name="Test Suite" sheetId="2" r:id="rId2"/>
     <sheet name="Tracability Matrix" sheetId="8" r:id="rId3"/>
     <sheet name="Test Data" sheetId="9" r:id="rId4"/>
     <sheet name="FundTransfer" sheetId="3" state="hidden" r:id="rId5"/>
@@ -23,14 +23,14 @@
     <sheet name="Change  password" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Customer'!$A$1:$I$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test Suite'!$A$1:$I$37</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="198">
   <si>
     <t>NOTE: To enter your own test cases
 1) Go to File &gt; Make a Copy
@@ -88,28 +88,6 @@
     <t>Pass/Fail</t>
   </si>
   <si>
-    <t>NC1</t>
-  </si>
-  <si>
-    <t>Verify Name Field</t>
-  </si>
-  <si>
-    <t>Name cannot be empty</t>
-  </si>
-  <si>
-    <t>1) Do not enter a value in NAME Field
-2) Press TAB and move to next Field</t>
-  </si>
-  <si>
-    <t>An error message "Customer name must not be blank" must shown</t>
-  </si>
-  <si>
-    <t>An error message "Customer name must not be blank" is shown</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>SR#</t>
   </si>
   <si>
@@ -385,9 +363,6 @@
     <t>Characters are not allowed</t>
   </si>
   <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Numbers are not allowed</t>
   </si>
   <si>
@@ -397,18 +372,12 @@
     <t>Customer name must not be blank</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Address Field must not be blank</t>
   </si>
   <si>
     <t>First character can not have space</t>
   </si>
   <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>City Field must not be blank</t>
   </si>
   <si>
@@ -433,15 +402,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t>TC_GB_Balance Enquiry_030</t>
-  </si>
-  <si>
-    <t>TC_GB_Balance Enquiry_031</t>
-  </si>
-  <si>
-    <t>TC_GB_Balance Enquiry_032</t>
-  </si>
-  <si>
     <t>Account No must not be blank</t>
   </si>
   <si>
@@ -463,99 +423,6 @@
     <t>PIN Code must not be blank</t>
   </si>
   <si>
-    <t>TC_GB_001</t>
-  </si>
-  <si>
-    <t>TC_GB_002</t>
-  </si>
-  <si>
-    <t>TC_GB_003</t>
-  </si>
-  <si>
-    <t>TC_GB_004</t>
-  </si>
-  <si>
-    <t>TC_GB_005</t>
-  </si>
-  <si>
-    <t>TC_GB_006</t>
-  </si>
-  <si>
-    <t>TC_GB_007</t>
-  </si>
-  <si>
-    <t>TC_GB_008</t>
-  </si>
-  <si>
-    <t>TC_GB_009</t>
-  </si>
-  <si>
-    <t>TC_GB_010</t>
-  </si>
-  <si>
-    <t>TC_GB_011</t>
-  </si>
-  <si>
-    <t>TC_GB_012</t>
-  </si>
-  <si>
-    <t>TC_GB_013</t>
-  </si>
-  <si>
-    <t>TC_GB_014</t>
-  </si>
-  <si>
-    <t>TC_GB_015</t>
-  </si>
-  <si>
-    <t>TC_GB_016</t>
-  </si>
-  <si>
-    <t>TC_GB_017</t>
-  </si>
-  <si>
-    <t>TC_GB_018</t>
-  </si>
-  <si>
-    <t>TC_GB_019</t>
-  </si>
-  <si>
-    <t>TC_GB_020</t>
-  </si>
-  <si>
-    <t>TC_GB_021</t>
-  </si>
-  <si>
-    <t>TC_GB_022</t>
-  </si>
-  <si>
-    <t>TC_GB_023</t>
-  </si>
-  <si>
-    <t>TC_GB_024</t>
-  </si>
-  <si>
-    <t>TC_GB_025</t>
-  </si>
-  <si>
-    <t>TC_GB_026</t>
-  </si>
-  <si>
-    <t>TC_GB_027</t>
-  </si>
-  <si>
-    <t>TC_GB_028</t>
-  </si>
-  <si>
-    <t>TC_GB_029</t>
-  </si>
-  <si>
-    <t>TC_GB_030</t>
-  </si>
-  <si>
-    <t>TC_GB_003.1</t>
-  </si>
-  <si>
     <t>writing test cases in new account module</t>
   </si>
   <si>
@@ -574,9 +441,6 @@
     <t>Test Case Title</t>
   </si>
   <si>
-    <t>Verify Customer Id Field</t>
-  </si>
-  <si>
     <t>Test Case Discription</t>
   </si>
   <si>
@@ -595,19 +459,7 @@
     <t>1429v&amp;D1476</t>
   </si>
   <si>
-    <t>1) Enter a valid customer ID
-2) Select Account Type (Savings)
-3) Enter Initial Deposit 5000
-4) Click submit</t>
-  </si>
-  <si>
     <t xml:space="preserve">Account Created Successfully </t>
-  </si>
-  <si>
-    <t>1) Enter a invalid customer ID
-2) Select Account Type (Savings)
-3) Enter Initial Deposit 5000
-4) Click submit</t>
   </si>
   <si>
     <t>Inserting an invalid Customer ID
@@ -626,8 +478,175 @@
     <t>Customer ID: " 23986"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error Message Displayed
+    <t>Inserting an invalid Customer ID
+(adding a caracter to the ID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inserting an invalid Customer ID
+(adding an ID with the first character is a space) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Customer Id </t>
+  </si>
+  <si>
+    <t>TC_NA_001</t>
+  </si>
+  <si>
+    <t>TC_NA_002</t>
+  </si>
+  <si>
+    <t>TC_NA_003</t>
+  </si>
+  <si>
+    <t>TC_NA_004</t>
+  </si>
+  <si>
+    <t>TC_NC_001</t>
+  </si>
+  <si>
+    <t>TC_NC_002</t>
+  </si>
+  <si>
+    <t>TC_NC_003</t>
+  </si>
+  <si>
+    <t>TC_NC_004</t>
+  </si>
+  <si>
+    <t>TC_NC_005</t>
+  </si>
+  <si>
+    <t>TC_NC_006</t>
+  </si>
+  <si>
+    <t>TC_NC_007</t>
+  </si>
+  <si>
+    <t>TC_NC_008</t>
+  </si>
+  <si>
+    <t>TC_NC_009</t>
+  </si>
+  <si>
+    <t>TC_NC_010</t>
+  </si>
+  <si>
+    <t>TC_NC_011</t>
+  </si>
+  <si>
+    <t>TC_NC_012</t>
+  </si>
+  <si>
+    <t>TC_NC_013</t>
+  </si>
+  <si>
+    <t>TC_NC_014</t>
+  </si>
+  <si>
+    <t>TC_NC_015</t>
+  </si>
+  <si>
+    <t>TC_NC_016</t>
+  </si>
+  <si>
+    <t>TC_NC_017</t>
+  </si>
+  <si>
+    <t>TC_NC_018</t>
+  </si>
+  <si>
+    <t>TC_NC_019</t>
+  </si>
+  <si>
+    <t>TC_NC_020</t>
+  </si>
+  <si>
+    <t>TC_NC_021</t>
+  </si>
+  <si>
+    <t>TC_NC_022</t>
+  </si>
+  <si>
+    <t>TC_NC_023</t>
+  </si>
+  <si>
+    <t>TC_NC_024</t>
+  </si>
+  <si>
+    <t>TC_NC_025</t>
+  </si>
+  <si>
+    <t>TC_NC_026</t>
+  </si>
+  <si>
+    <t>TC_NC_027</t>
+  </si>
+  <si>
+    <t>Verify Customer Name</t>
+  </si>
+  <si>
+    <t>Verify Address</t>
+  </si>
+  <si>
+    <t>Verify City</t>
+  </si>
+  <si>
+    <t>Error Message Displayed
+"Customer ID must not contain Special characters"</t>
+  </si>
+  <si>
+    <t>Error Message Displayed
+"Customer ID must not contain characters"</t>
+  </si>
+  <si>
+    <t>Error Message Displayed
+"Customer ID must not contain spaces"</t>
+  </si>
+  <si>
+    <t>TC_NA_005</t>
+  </si>
+  <si>
+    <t>TC_NA_006</t>
+  </si>
+  <si>
+    <t>TC_NA_007</t>
+  </si>
+  <si>
+    <t>Verify Initial Deposit</t>
+  </si>
+  <si>
+    <t>TC_BE_030</t>
+  </si>
+  <si>
+    <t>TC_BE_031</t>
+  </si>
+  <si>
+    <t>TC_BE_032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Initial Deposit is required</t>
+  </si>
+  <si>
+    <t>TC_NA_008</t>
+  </si>
+  <si>
+    <t>TC_NA_009</t>
+  </si>
+  <si>
+    <t>Special character are not allowed in Customer ID</t>
+  </si>
+  <si>
+    <t>Characters are not allowed in Customer ID</t>
+  </si>
+  <si>
+    <t>First character cannot be a space in Customer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Enter a valid customer ID
 </t>
+  </si>
+  <si>
+    <t>1) Enter an invalid customer ID</t>
   </si>
 </sst>
 </file>
@@ -834,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -880,13 +899,7 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -925,6 +938,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,6 +956,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>980607</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BB15A6-688B-AF22-C248-4FEE97414AAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="733425"/>
+          <a:ext cx="3742857" cy="2342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1282,12 +1347,12 @@
     </row>
     <row r="2" spans="1:20" ht="12.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -1306,10 +1371,10 @@
     </row>
     <row r="3" spans="1:20" ht="12.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1328,10 +1393,10 @@
     </row>
     <row r="4" spans="1:20" ht="12.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -1488,13 +1553,13 @@
         <v>1.2</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D10" s="14">
         <v>45312</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="1"/>
@@ -1518,13 +1583,13 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D11" s="14">
         <v>45313</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>169</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3491,1219 +3556,1208 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W105"/>
+  <dimension ref="A1:W109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="27" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14" style="12" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="44" style="12" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" style="12" customWidth="1"/>
     <col min="5" max="5" width="39.140625" style="12" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="36" style="12" customWidth="1"/>
-    <col min="8" max="8" width="30.5703125" style="12" customWidth="1"/>
-    <col min="9" max="23" width="15.140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="12" customWidth="1"/>
+    <col min="10" max="23" width="15.140625" style="12" customWidth="1"/>
     <col min="24" max="16384" width="12.5703125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="25" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:23" s="23" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" s="20" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+    </row>
+    <row r="3" spans="1:23" ht="39" customHeight="1">
+      <c r="A3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" ht="39" customHeight="1">
+      <c r="A4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="1:23" ht="39" customHeight="1">
+      <c r="A5" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+    </row>
+    <row r="6" spans="1:23" ht="39" customHeight="1">
+      <c r="A6" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" spans="1:23" ht="39" customHeight="1">
+      <c r="A7" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" spans="1:23" ht="39" customHeight="1">
+      <c r="A8" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" spans="1:23" ht="39" customHeight="1">
+      <c r="A9" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" ht="39" customHeight="1">
+      <c r="A10" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:23" ht="39" customHeight="1">
+      <c r="A11" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+    </row>
+    <row r="12" spans="1:23" s="20" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+    </row>
+    <row r="13" spans="1:23" ht="27" customHeight="1">
+      <c r="A13" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+    </row>
+    <row r="14" spans="1:23" ht="27" customHeight="1">
+      <c r="A14" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+    </row>
+    <row r="15" spans="1:23" ht="27" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:23" ht="27" customHeight="1">
+      <c r="A16" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+    </row>
+    <row r="17" spans="1:23" ht="27" customHeight="1">
+      <c r="A17" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+    </row>
+    <row r="18" spans="1:23" ht="27" customHeight="1">
+      <c r="A18" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" ht="27" customHeight="1">
+      <c r="A19" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+    </row>
+    <row r="20" spans="1:23" ht="27" customHeight="1">
+      <c r="A20" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+    </row>
+    <row r="21" spans="1:23" ht="27" customHeight="1">
+      <c r="A21" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+    </row>
+    <row r="22" spans="1:23" ht="27" customHeight="1">
+      <c r="A22" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+    </row>
+    <row r="23" spans="1:23" ht="27" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+    </row>
+    <row r="24" spans="1:23" ht="27" customHeight="1">
+      <c r="A24" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+    </row>
+    <row r="25" spans="1:23" ht="27" customHeight="1">
+      <c r="A25" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+    </row>
+    <row r="26" spans="1:23" ht="27" customHeight="1">
+      <c r="A26" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+    </row>
+    <row r="27" spans="1:23" ht="27" customHeight="1">
+      <c r="A27" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+    </row>
+    <row r="28" spans="1:23" ht="27" customHeight="1">
+      <c r="A28" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+    </row>
+    <row r="29" spans="1:23" ht="27" customHeight="1">
+      <c r="A29" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+    </row>
+    <row r="30" spans="1:23" ht="27" customHeight="1">
+      <c r="A30" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="18"/>
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="18"/>
+      <c r="W30" s="18"/>
+    </row>
+    <row r="31" spans="1:23" ht="27" customHeight="1">
+      <c r="A31" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+    </row>
+    <row r="32" spans="1:23" ht="27" customHeight="1">
+      <c r="A32" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+    </row>
+    <row r="33" spans="1:23" ht="27" customHeight="1">
+      <c r="A33" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+    </row>
+    <row r="34" spans="1:23" ht="27" customHeight="1">
+      <c r="A34" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+    </row>
+    <row r="35" spans="1:23" ht="27" customHeight="1">
+      <c r="A35" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+    </row>
+    <row r="36" spans="1:23" ht="27" customHeight="1">
+      <c r="A36" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+    </row>
+    <row r="37" spans="1:23" ht="27" customHeight="1">
+      <c r="A37" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-    </row>
-    <row r="2" spans="1:23" ht="26.25" customHeight="1">
-      <c r="A2" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23" s="22" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-    </row>
-    <row r="4" spans="1:23" ht="57.75" customHeight="1">
-      <c r="A4" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="B37" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+    </row>
+    <row r="38" spans="1:23" ht="27" customHeight="1">
+      <c r="A38" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-    </row>
-    <row r="5" spans="1:23" ht="57.75" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-    </row>
-    <row r="6" spans="1:23" ht="57.75" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-    </row>
-    <row r="7" spans="1:23" ht="57.75" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-    </row>
-    <row r="8" spans="1:23" s="22" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-    </row>
-    <row r="9" spans="1:23" ht="27" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-    </row>
-    <row r="10" spans="1:23" ht="27" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-    </row>
-    <row r="11" spans="1:23" ht="27" customHeight="1">
-      <c r="A11" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-    </row>
-    <row r="12" spans="1:23" ht="27" customHeight="1">
-      <c r="A12" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-    </row>
-    <row r="13" spans="1:23" ht="27" customHeight="1">
-      <c r="A13" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
+      <c r="B38" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-    </row>
-    <row r="14" spans="1:23" ht="27" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-    </row>
-    <row r="15" spans="1:23" ht="27" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-    </row>
-    <row r="16" spans="1:23" ht="27" customHeight="1">
-      <c r="A16" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-    </row>
-    <row r="17" spans="1:23" ht="27" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-    </row>
-    <row r="18" spans="1:23" ht="27" customHeight="1">
-      <c r="A18" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-    </row>
-    <row r="19" spans="1:23" ht="27" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-    </row>
-    <row r="20" spans="1:23" ht="27" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-    </row>
-    <row r="21" spans="1:23" ht="27" customHeight="1">
-      <c r="A21" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-    </row>
-    <row r="22" spans="1:23" ht="27" customHeight="1">
-      <c r="A22" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-    </row>
-    <row r="23" spans="1:23" ht="27" customHeight="1">
-      <c r="A23" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
-      <c r="W23" s="20"/>
-    </row>
-    <row r="24" spans="1:23" ht="27" customHeight="1">
-      <c r="A24" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-    </row>
-    <row r="25" spans="1:23" ht="27" customHeight="1">
-      <c r="A25" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-    </row>
-    <row r="26" spans="1:23" ht="27" customHeight="1">
-      <c r="A26" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-    </row>
-    <row r="27" spans="1:23" ht="27" customHeight="1">
-      <c r="A27" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-    </row>
-    <row r="28" spans="1:23" ht="27" customHeight="1">
-      <c r="A28" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-    </row>
-    <row r="29" spans="1:23" ht="27" customHeight="1">
-      <c r="A29" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-    </row>
-    <row r="30" spans="1:23" ht="27" customHeight="1">
-      <c r="A30" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-    </row>
-    <row r="31" spans="1:23" ht="27" customHeight="1">
-      <c r="A31" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-    </row>
-    <row r="32" spans="1:23" ht="27" customHeight="1">
-      <c r="A32" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-    </row>
-    <row r="33" spans="1:23" ht="27" customHeight="1">
-      <c r="A33" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-    </row>
-    <row r="34" spans="1:23" ht="27" customHeight="1">
-      <c r="A34" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-    </row>
-    <row r="35" spans="1:23" ht="27" customHeight="1">
-      <c r="A35" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-    </row>
-    <row r="36" spans="1:23" ht="27" customHeight="1">
-      <c r="A36" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-    </row>
-    <row r="37" spans="1:23" ht="27" customHeight="1">
-      <c r="A37" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-    </row>
-    <row r="38" spans="1:23" ht="27" customHeight="1">
-      <c r="A38" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18" t="s">
-        <v>111</v>
-      </c>
+      <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -4725,9 +4779,15 @@
       <c r="W38" s="18"/>
     </row>
     <row r="39" spans="1:23" ht="27" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>109</v>
+      </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -4750,9 +4810,13 @@
       <c r="W39" s="18"/>
     </row>
     <row r="40" spans="1:23" ht="27" customHeight="1">
-      <c r="A40" s="18"/>
+      <c r="A40" s="18" t="s">
+        <v>187</v>
+      </c>
       <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="C40" s="18" t="s">
+        <v>118</v>
+      </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -4775,9 +4839,13 @@
       <c r="W40" s="18"/>
     </row>
     <row r="41" spans="1:23" ht="27" customHeight="1">
-      <c r="A41" s="18"/>
+      <c r="A41" s="18" t="s">
+        <v>188</v>
+      </c>
       <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="C41" s="18" t="s">
+        <v>103</v>
+      </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
@@ -4800,1609 +4868,1716 @@
       <c r="W41" s="18"/>
     </row>
     <row r="42" spans="1:23" ht="27" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
+      <c r="A42" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="16"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
     </row>
     <row r="43" spans="1:23" ht="27" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="18"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="16"/>
+      <c r="R43" s="16"/>
+      <c r="S43" s="16"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
     </row>
     <row r="44" spans="1:23" ht="27" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="16"/>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
     </row>
     <row r="45" spans="1:23" ht="27" customHeight="1">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="16"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
     </row>
     <row r="46" spans="1:23" ht="27" customHeight="1">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="16"/>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
     </row>
     <row r="47" spans="1:23" ht="27" customHeight="1">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="18"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="16"/>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
     </row>
     <row r="48" spans="1:23" ht="27" customHeight="1">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="18"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
     </row>
     <row r="49" spans="1:23" ht="27" customHeight="1">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="18"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
     </row>
     <row r="50" spans="1:23" ht="27" customHeight="1">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="18"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="16"/>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
     </row>
     <row r="51" spans="1:23" ht="27" customHeight="1">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18"/>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="18"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
     </row>
     <row r="52" spans="1:23" ht="27" customHeight="1">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
-      <c r="P52" s="18"/>
-      <c r="Q52" s="18"/>
-      <c r="R52" s="18"/>
-      <c r="S52" s="18"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="18"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="16"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
     </row>
     <row r="53" spans="1:23" ht="27" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
-      <c r="P53" s="18"/>
-      <c r="Q53" s="18"/>
-      <c r="R53" s="18"/>
-      <c r="S53" s="18"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="18"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="16"/>
+      <c r="Q53" s="16"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
     </row>
     <row r="54" spans="1:23" ht="27" customHeight="1">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="16"/>
+      <c r="Q54" s="16"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
     </row>
     <row r="55" spans="1:23" ht="27" customHeight="1">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
     </row>
     <row r="56" spans="1:23" ht="27" customHeight="1">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
     </row>
     <row r="57" spans="1:23" ht="27" customHeight="1">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
-      <c r="P57" s="18"/>
-      <c r="Q57" s="18"/>
-      <c r="R57" s="18"/>
-      <c r="S57" s="18"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="18"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="16"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
     </row>
     <row r="58" spans="1:23" ht="27" customHeight="1">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
-      <c r="P58" s="18"/>
-      <c r="Q58" s="18"/>
-      <c r="R58" s="18"/>
-      <c r="S58" s="18"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="18"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
     </row>
     <row r="59" spans="1:23" ht="27" customHeight="1">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+      <c r="W59" s="16"/>
     </row>
     <row r="60" spans="1:23" ht="27" customHeight="1">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
-      <c r="P60" s="18"/>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="18"/>
-      <c r="S60" s="18"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
-      <c r="W60" s="18"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+      <c r="W60" s="16"/>
     </row>
     <row r="61" spans="1:23" ht="27" customHeight="1">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
-      <c r="P61" s="18"/>
-      <c r="Q61" s="18"/>
-      <c r="R61" s="18"/>
-      <c r="S61" s="18"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
-      <c r="W61" s="18"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="16"/>
+      <c r="O61" s="16"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="16"/>
+      <c r="R61" s="16"/>
+      <c r="S61" s="16"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
+      <c r="W61" s="16"/>
     </row>
     <row r="62" spans="1:23" ht="27" customHeight="1">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
-      <c r="P62" s="18"/>
-      <c r="Q62" s="18"/>
-      <c r="R62" s="18"/>
-      <c r="S62" s="18"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
-      <c r="W62" s="18"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+      <c r="R62" s="16"/>
+      <c r="S62" s="16"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
+      <c r="W62" s="16"/>
     </row>
     <row r="63" spans="1:23" ht="27" customHeight="1">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+      <c r="R63" s="16"/>
+      <c r="S63" s="16"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
+      <c r="W63" s="16"/>
     </row>
     <row r="64" spans="1:23" ht="27" customHeight="1">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
-      <c r="P64" s="18"/>
-      <c r="Q64" s="18"/>
-      <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
-      <c r="W64" s="18"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
     </row>
     <row r="65" spans="1:23" ht="27" customHeight="1">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="18"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
-      <c r="W65" s="18"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="16"/>
+      <c r="O65" s="16"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="16"/>
+      <c r="R65" s="16"/>
+      <c r="S65" s="16"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
+      <c r="W65" s="16"/>
     </row>
     <row r="66" spans="1:23" ht="27" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="16"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="16"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="16"/>
+      <c r="R66" s="16"/>
+      <c r="S66" s="16"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
+      <c r="W66" s="16"/>
     </row>
     <row r="67" spans="1:23" ht="27" customHeight="1">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
-      <c r="P67" s="18"/>
-      <c r="Q67" s="18"/>
-      <c r="R67" s="18"/>
-      <c r="S67" s="18"/>
-      <c r="T67" s="18"/>
-      <c r="U67" s="18"/>
-      <c r="V67" s="18"/>
-      <c r="W67" s="18"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
+      <c r="R67" s="16"/>
+      <c r="S67" s="16"/>
+      <c r="T67" s="16"/>
+      <c r="U67" s="16"/>
+      <c r="V67" s="16"/>
+      <c r="W67" s="16"/>
     </row>
     <row r="68" spans="1:23" ht="27" customHeight="1">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+      <c r="R68" s="16"/>
+      <c r="S68" s="16"/>
+      <c r="T68" s="16"/>
+      <c r="U68" s="16"/>
+      <c r="V68" s="16"/>
+      <c r="W68" s="16"/>
     </row>
     <row r="69" spans="1:23" ht="27" customHeight="1">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
-      <c r="R69" s="18"/>
-      <c r="S69" s="18"/>
-      <c r="T69" s="18"/>
-      <c r="U69" s="18"/>
-      <c r="V69" s="18"/>
-      <c r="W69" s="18"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="16"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="16"/>
+      <c r="O69" s="16"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="16"/>
+      <c r="R69" s="16"/>
+      <c r="S69" s="16"/>
+      <c r="T69" s="16"/>
+      <c r="U69" s="16"/>
+      <c r="V69" s="16"/>
+      <c r="W69" s="16"/>
     </row>
     <row r="70" spans="1:23" ht="27" customHeight="1">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
-      <c r="P70" s="18"/>
-      <c r="Q70" s="18"/>
-      <c r="R70" s="18"/>
-      <c r="S70" s="18"/>
-      <c r="T70" s="18"/>
-      <c r="U70" s="18"/>
-      <c r="V70" s="18"/>
-      <c r="W70" s="18"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="16"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="16"/>
+      <c r="P70" s="16"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="16"/>
+      <c r="U70" s="16"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
     </row>
     <row r="71" spans="1:23" ht="27" customHeight="1">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
-      <c r="P71" s="18"/>
-      <c r="Q71" s="18"/>
-      <c r="R71" s="18"/>
-      <c r="S71" s="18"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="18"/>
-      <c r="V71" s="18"/>
-      <c r="W71" s="18"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+      <c r="W71" s="16"/>
     </row>
     <row r="72" spans="1:23" ht="27" customHeight="1">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
-      <c r="P72" s="18"/>
-      <c r="Q72" s="18"/>
-      <c r="R72" s="18"/>
-      <c r="S72" s="18"/>
-      <c r="T72" s="18"/>
-      <c r="U72" s="18"/>
-      <c r="V72" s="18"/>
-      <c r="W72" s="18"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="16"/>
+      <c r="O72" s="16"/>
+      <c r="P72" s="16"/>
+      <c r="Q72" s="16"/>
+      <c r="R72" s="16"/>
+      <c r="S72" s="16"/>
+      <c r="T72" s="16"/>
+      <c r="U72" s="16"/>
+      <c r="V72" s="16"/>
+      <c r="W72" s="16"/>
     </row>
     <row r="73" spans="1:23" ht="27" customHeight="1">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
-      <c r="P73" s="18"/>
-      <c r="Q73" s="18"/>
-      <c r="R73" s="18"/>
-      <c r="S73" s="18"/>
-      <c r="T73" s="18"/>
-      <c r="U73" s="18"/>
-      <c r="V73" s="18"/>
-      <c r="W73" s="18"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="16"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="16"/>
+      <c r="O73" s="16"/>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="16"/>
+      <c r="R73" s="16"/>
+      <c r="S73" s="16"/>
+      <c r="T73" s="16"/>
+      <c r="U73" s="16"/>
+      <c r="V73" s="16"/>
+      <c r="W73" s="16"/>
     </row>
     <row r="74" spans="1:23" ht="27" customHeight="1">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="18"/>
-      <c r="O74" s="18"/>
-      <c r="P74" s="18"/>
-      <c r="Q74" s="18"/>
-      <c r="R74" s="18"/>
-      <c r="S74" s="18"/>
-      <c r="T74" s="18"/>
-      <c r="U74" s="18"/>
-      <c r="V74" s="18"/>
-      <c r="W74" s="18"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="16"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="16"/>
+      <c r="O74" s="16"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="16"/>
+      <c r="R74" s="16"/>
+      <c r="S74" s="16"/>
+      <c r="T74" s="16"/>
+      <c r="U74" s="16"/>
+      <c r="V74" s="16"/>
+      <c r="W74" s="16"/>
     </row>
     <row r="75" spans="1:23" ht="27" customHeight="1">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="16"/>
+      <c r="O75" s="16"/>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="16"/>
+      <c r="R75" s="16"/>
+      <c r="S75" s="16"/>
+      <c r="T75" s="16"/>
+      <c r="U75" s="16"/>
+      <c r="V75" s="16"/>
+      <c r="W75" s="16"/>
     </row>
     <row r="76" spans="1:23" ht="27" customHeight="1">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="18"/>
-      <c r="O76" s="18"/>
-      <c r="P76" s="18"/>
-      <c r="Q76" s="18"/>
-      <c r="R76" s="18"/>
-      <c r="S76" s="18"/>
-      <c r="T76" s="18"/>
-      <c r="U76" s="18"/>
-      <c r="V76" s="18"/>
-      <c r="W76" s="18"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="16"/>
+      <c r="S76" s="16"/>
+      <c r="T76" s="16"/>
+      <c r="U76" s="16"/>
+      <c r="V76" s="16"/>
+      <c r="W76" s="16"/>
     </row>
     <row r="77" spans="1:23" ht="27" customHeight="1">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
-      <c r="I77" s="18"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="18"/>
-      <c r="L77" s="18"/>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
-      <c r="O77" s="18"/>
-      <c r="P77" s="18"/>
-      <c r="Q77" s="18"/>
-      <c r="R77" s="18"/>
-      <c r="S77" s="18"/>
-      <c r="T77" s="18"/>
-      <c r="U77" s="18"/>
-      <c r="V77" s="18"/>
-      <c r="W77" s="18"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="16"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="16"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="16"/>
+      <c r="R77" s="16"/>
+      <c r="S77" s="16"/>
+      <c r="T77" s="16"/>
+      <c r="U77" s="16"/>
+      <c r="V77" s="16"/>
+      <c r="W77" s="16"/>
     </row>
     <row r="78" spans="1:23" ht="27" customHeight="1">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
-      <c r="I78" s="18"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="18"/>
-      <c r="L78" s="18"/>
-      <c r="M78" s="18"/>
-      <c r="N78" s="18"/>
-      <c r="O78" s="18"/>
-      <c r="P78" s="18"/>
-      <c r="Q78" s="18"/>
-      <c r="R78" s="18"/>
-      <c r="S78" s="18"/>
-      <c r="T78" s="18"/>
-      <c r="U78" s="18"/>
-      <c r="V78" s="18"/>
-      <c r="W78" s="18"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="16"/>
+      <c r="S78" s="16"/>
+      <c r="T78" s="16"/>
+      <c r="U78" s="16"/>
+      <c r="V78" s="16"/>
+      <c r="W78" s="16"/>
     </row>
     <row r="79" spans="1:23" ht="27" customHeight="1">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="16"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="16"/>
+      <c r="O79" s="16"/>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="16"/>
+      <c r="R79" s="16"/>
+      <c r="S79" s="16"/>
+      <c r="T79" s="16"/>
+      <c r="U79" s="16"/>
+      <c r="V79" s="16"/>
+      <c r="W79" s="16"/>
     </row>
     <row r="80" spans="1:23" ht="27" customHeight="1">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="16"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="16"/>
+      <c r="O80" s="16"/>
+      <c r="P80" s="16"/>
+      <c r="Q80" s="16"/>
+      <c r="R80" s="16"/>
+      <c r="S80" s="16"/>
+      <c r="T80" s="16"/>
+      <c r="U80" s="16"/>
+      <c r="V80" s="16"/>
+      <c r="W80" s="16"/>
     </row>
     <row r="81" spans="1:23" ht="27" customHeight="1">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="O81" s="16"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="16"/>
+      <c r="R81" s="16"/>
+      <c r="S81" s="16"/>
+      <c r="T81" s="16"/>
+      <c r="U81" s="16"/>
+      <c r="V81" s="16"/>
+      <c r="W81" s="16"/>
     </row>
     <row r="82" spans="1:23" ht="27" customHeight="1">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="18"/>
-      <c r="R82" s="18"/>
-      <c r="S82" s="18"/>
-      <c r="T82" s="18"/>
-      <c r="U82" s="18"/>
-      <c r="V82" s="18"/>
-      <c r="W82" s="18"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+      <c r="R82" s="16"/>
+      <c r="S82" s="16"/>
+      <c r="T82" s="16"/>
+      <c r="U82" s="16"/>
+      <c r="V82" s="16"/>
+      <c r="W82" s="16"/>
     </row>
     <row r="83" spans="1:23" ht="27" customHeight="1">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
-      <c r="W83" s="18"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+      <c r="R83" s="16"/>
+      <c r="S83" s="16"/>
+      <c r="T83" s="16"/>
+      <c r="U83" s="16"/>
+      <c r="V83" s="16"/>
+      <c r="W83" s="16"/>
     </row>
     <row r="84" spans="1:23" ht="27" customHeight="1">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+      <c r="R84" s="16"/>
+      <c r="S84" s="16"/>
+      <c r="T84" s="16"/>
+      <c r="U84" s="16"/>
+      <c r="V84" s="16"/>
+      <c r="W84" s="16"/>
     </row>
     <row r="85" spans="1:23" ht="27" customHeight="1">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="18"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
-      <c r="O85" s="18"/>
-      <c r="P85" s="18"/>
-      <c r="Q85" s="18"/>
-      <c r="R85" s="18"/>
-      <c r="S85" s="18"/>
-      <c r="T85" s="18"/>
-      <c r="U85" s="18"/>
-      <c r="V85" s="18"/>
-      <c r="W85" s="18"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="16"/>
+      <c r="R85" s="16"/>
+      <c r="S85" s="16"/>
+      <c r="T85" s="16"/>
+      <c r="U85" s="16"/>
+      <c r="V85" s="16"/>
+      <c r="W85" s="16"/>
     </row>
     <row r="86" spans="1:23" ht="27" customHeight="1">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="18"/>
-      <c r="N86" s="18"/>
-      <c r="O86" s="18"/>
-      <c r="P86" s="18"/>
-      <c r="Q86" s="18"/>
-      <c r="R86" s="18"/>
-      <c r="S86" s="18"/>
-      <c r="T86" s="18"/>
-      <c r="U86" s="18"/>
-      <c r="V86" s="18"/>
-      <c r="W86" s="18"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
+      <c r="P86" s="16"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
+      <c r="S86" s="16"/>
+      <c r="T86" s="16"/>
+      <c r="U86" s="16"/>
+      <c r="V86" s="16"/>
+      <c r="W86" s="16"/>
     </row>
     <row r="87" spans="1:23" ht="27" customHeight="1">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
-      <c r="W87" s="18"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="16"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="16"/>
+      <c r="O87" s="16"/>
+      <c r="P87" s="16"/>
+      <c r="Q87" s="16"/>
+      <c r="R87" s="16"/>
+      <c r="S87" s="16"/>
+      <c r="T87" s="16"/>
+      <c r="U87" s="16"/>
+      <c r="V87" s="16"/>
+      <c r="W87" s="16"/>
     </row>
     <row r="88" spans="1:23" ht="27" customHeight="1">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
-      <c r="W88" s="18"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="16"/>
+      <c r="R88" s="16"/>
+      <c r="S88" s="16"/>
+      <c r="T88" s="16"/>
+      <c r="U88" s="16"/>
+      <c r="V88" s="16"/>
+      <c r="W88" s="16"/>
     </row>
     <row r="89" spans="1:23" ht="27" customHeight="1">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
-      <c r="O89" s="18"/>
-      <c r="P89" s="18"/>
-      <c r="Q89" s="18"/>
-      <c r="R89" s="18"/>
-      <c r="S89" s="18"/>
-      <c r="T89" s="18"/>
-      <c r="U89" s="18"/>
-      <c r="V89" s="18"/>
-      <c r="W89" s="18"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="16"/>
+      <c r="O89" s="16"/>
+      <c r="P89" s="16"/>
+      <c r="Q89" s="16"/>
+      <c r="R89" s="16"/>
+      <c r="S89" s="16"/>
+      <c r="T89" s="16"/>
+      <c r="U89" s="16"/>
+      <c r="V89" s="16"/>
+      <c r="W89" s="16"/>
     </row>
     <row r="90" spans="1:23" ht="27" customHeight="1">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="18"/>
-      <c r="N90" s="18"/>
-      <c r="O90" s="18"/>
-      <c r="P90" s="18"/>
-      <c r="Q90" s="18"/>
-      <c r="R90" s="18"/>
-      <c r="S90" s="18"/>
-      <c r="T90" s="18"/>
-      <c r="U90" s="18"/>
-      <c r="V90" s="18"/>
-      <c r="W90" s="18"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="16"/>
+      <c r="Q90" s="16"/>
+      <c r="R90" s="16"/>
+      <c r="S90" s="16"/>
+      <c r="T90" s="16"/>
+      <c r="U90" s="16"/>
+      <c r="V90" s="16"/>
+      <c r="W90" s="16"/>
     </row>
     <row r="91" spans="1:23" ht="27" customHeight="1">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
-      <c r="I91" s="18"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="18"/>
-      <c r="L91" s="18"/>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
-      <c r="O91" s="18"/>
-      <c r="P91" s="18"/>
-      <c r="Q91" s="18"/>
-      <c r="R91" s="18"/>
-      <c r="S91" s="18"/>
-      <c r="T91" s="18"/>
-      <c r="U91" s="18"/>
-      <c r="V91" s="18"/>
-      <c r="W91" s="18"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="16"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="16"/>
+      <c r="O91" s="16"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="16"/>
+      <c r="R91" s="16"/>
+      <c r="S91" s="16"/>
+      <c r="T91" s="16"/>
+      <c r="U91" s="16"/>
+      <c r="V91" s="16"/>
+      <c r="W91" s="16"/>
     </row>
     <row r="92" spans="1:23" ht="27" customHeight="1">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="16"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="16"/>
+      <c r="O92" s="16"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="16"/>
+      <c r="R92" s="16"/>
+      <c r="S92" s="16"/>
+      <c r="T92" s="16"/>
+      <c r="U92" s="16"/>
+      <c r="V92" s="16"/>
+      <c r="W92" s="16"/>
     </row>
     <row r="93" spans="1:23" ht="27" customHeight="1">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="18"/>
-      <c r="L93" s="18"/>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
-      <c r="O93" s="18"/>
-      <c r="P93" s="18"/>
-      <c r="Q93" s="18"/>
-      <c r="R93" s="18"/>
-      <c r="S93" s="18"/>
-      <c r="T93" s="18"/>
-      <c r="U93" s="18"/>
-      <c r="V93" s="18"/>
-      <c r="W93" s="18"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="16"/>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="16"/>
+      <c r="O93" s="16"/>
+      <c r="P93" s="16"/>
+      <c r="Q93" s="16"/>
+      <c r="R93" s="16"/>
+      <c r="S93" s="16"/>
+      <c r="T93" s="16"/>
+      <c r="U93" s="16"/>
+      <c r="V93" s="16"/>
+      <c r="W93" s="16"/>
     </row>
     <row r="94" spans="1:23" ht="27" customHeight="1">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="T94" s="18"/>
-      <c r="U94" s="18"/>
-      <c r="V94" s="18"/>
-      <c r="W94" s="18"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="16"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="16"/>
+      <c r="O94" s="16"/>
+      <c r="P94" s="16"/>
+      <c r="Q94" s="16"/>
+      <c r="R94" s="16"/>
+      <c r="S94" s="16"/>
+      <c r="T94" s="16"/>
+      <c r="U94" s="16"/>
+      <c r="V94" s="16"/>
+      <c r="W94" s="16"/>
     </row>
     <row r="95" spans="1:23" ht="27" customHeight="1">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
-      <c r="I95" s="18"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="18"/>
-      <c r="L95" s="18"/>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
-      <c r="O95" s="18"/>
-      <c r="P95" s="18"/>
-      <c r="Q95" s="18"/>
-      <c r="R95" s="18"/>
-      <c r="S95" s="18"/>
-      <c r="T95" s="18"/>
-      <c r="U95" s="18"/>
-      <c r="V95" s="18"/>
-      <c r="W95" s="18"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="16"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="16"/>
+      <c r="O95" s="16"/>
+      <c r="P95" s="16"/>
+      <c r="Q95" s="16"/>
+      <c r="R95" s="16"/>
+      <c r="S95" s="16"/>
+      <c r="T95" s="16"/>
+      <c r="U95" s="16"/>
+      <c r="V95" s="16"/>
+      <c r="W95" s="16"/>
     </row>
     <row r="96" spans="1:23" ht="27" customHeight="1">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="18"/>
-      <c r="I96" s="18"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="18"/>
-      <c r="L96" s="18"/>
-      <c r="M96" s="18"/>
-      <c r="N96" s="18"/>
-      <c r="O96" s="18"/>
-      <c r="P96" s="18"/>
-      <c r="Q96" s="18"/>
-      <c r="R96" s="18"/>
-      <c r="S96" s="18"/>
-      <c r="T96" s="18"/>
-      <c r="U96" s="18"/>
-      <c r="V96" s="18"/>
-      <c r="W96" s="18"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="16"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="16"/>
+      <c r="O96" s="16"/>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="16"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+      <c r="T96" s="16"/>
+      <c r="U96" s="16"/>
+      <c r="V96" s="16"/>
+      <c r="W96" s="16"/>
     </row>
     <row r="97" spans="1:23" ht="27" customHeight="1">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="18"/>
-      <c r="L97" s="18"/>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
-      <c r="O97" s="18"/>
-      <c r="P97" s="18"/>
-      <c r="Q97" s="18"/>
-      <c r="R97" s="18"/>
-      <c r="S97" s="18"/>
-      <c r="T97" s="18"/>
-      <c r="U97" s="18"/>
-      <c r="V97" s="18"/>
-      <c r="W97" s="18"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="16"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="16"/>
+      <c r="O97" s="16"/>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="16"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+      <c r="T97" s="16"/>
+      <c r="U97" s="16"/>
+      <c r="V97" s="16"/>
+      <c r="W97" s="16"/>
     </row>
     <row r="98" spans="1:23" ht="27" customHeight="1">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="16"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16"/>
+      <c r="N98" s="16"/>
+      <c r="O98" s="16"/>
+      <c r="P98" s="16"/>
+      <c r="Q98" s="16"/>
+      <c r="R98" s="16"/>
+      <c r="S98" s="16"/>
+      <c r="T98" s="16"/>
+      <c r="U98" s="16"/>
+      <c r="V98" s="16"/>
+      <c r="W98" s="16"/>
     </row>
     <row r="99" spans="1:23" ht="27" customHeight="1">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="16"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16"/>
+      <c r="N99" s="16"/>
+      <c r="O99" s="16"/>
+      <c r="P99" s="16"/>
+      <c r="Q99" s="16"/>
+      <c r="R99" s="16"/>
+      <c r="S99" s="16"/>
+      <c r="T99" s="16"/>
+      <c r="U99" s="16"/>
+      <c r="V99" s="16"/>
+      <c r="W99" s="16"/>
     </row>
     <row r="100" spans="1:23" ht="27" customHeight="1">
-      <c r="A100" s="18"/>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="18"/>
-      <c r="R100" s="18"/>
-      <c r="S100" s="18"/>
-      <c r="T100" s="18"/>
-      <c r="U100" s="18"/>
-      <c r="V100" s="18"/>
-      <c r="W100" s="18"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="16"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="16"/>
+      <c r="P100" s="16"/>
+      <c r="Q100" s="16"/>
+      <c r="R100" s="16"/>
+      <c r="S100" s="16"/>
+      <c r="T100" s="16"/>
+      <c r="U100" s="16"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="16"/>
     </row>
     <row r="101" spans="1:23" ht="27" customHeight="1">
-      <c r="A101" s="18"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="18"/>
-      <c r="V101" s="18"/>
-      <c r="W101" s="18"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="16"/>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+      <c r="Q101" s="16"/>
+      <c r="R101" s="16"/>
+      <c r="S101" s="16"/>
+      <c r="T101" s="16"/>
+      <c r="U101" s="16"/>
+      <c r="V101" s="16"/>
+      <c r="W101" s="16"/>
     </row>
     <row r="102" spans="1:23" ht="27" customHeight="1">
-      <c r="A102" s="18"/>
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
-      <c r="T102" s="18"/>
-      <c r="U102" s="18"/>
-      <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
     </row>
     <row r="103" spans="1:23" ht="27" customHeight="1">
-      <c r="A103" s="18"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="18"/>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+      <c r="Q103" s="16"/>
+      <c r="R103" s="16"/>
+      <c r="S103" s="16"/>
+      <c r="T103" s="16"/>
+      <c r="U103" s="16"/>
+      <c r="V103" s="16"/>
+      <c r="W103" s="16"/>
     </row>
     <row r="104" spans="1:23" ht="27" customHeight="1">
-      <c r="A104" s="18"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="18"/>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
-      <c r="I104" s="18"/>
-      <c r="J104" s="18"/>
-      <c r="K104" s="18"/>
-      <c r="L104" s="18"/>
-      <c r="M104" s="18"/>
-      <c r="N104" s="18"/>
-      <c r="O104" s="18"/>
-      <c r="P104" s="18"/>
-      <c r="Q104" s="18"/>
-      <c r="R104" s="18"/>
-      <c r="S104" s="18"/>
-      <c r="T104" s="18"/>
-      <c r="U104" s="18"/>
-      <c r="V104" s="18"/>
-      <c r="W104" s="18"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+      <c r="Q104" s="16"/>
+      <c r="R104" s="16"/>
+      <c r="S104" s="16"/>
+      <c r="T104" s="16"/>
+      <c r="U104" s="16"/>
+      <c r="V104" s="16"/>
+      <c r="W104" s="16"/>
     </row>
     <row r="105" spans="1:23" ht="27" customHeight="1">
-      <c r="A105" s="18"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
-      <c r="T105" s="18"/>
-      <c r="U105" s="18"/>
-      <c r="V105" s="18"/>
-      <c r="W105" s="18"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16"/>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+      <c r="Q105" s="16"/>
+      <c r="R105" s="16"/>
+      <c r="S105" s="16"/>
+      <c r="T105" s="16"/>
+      <c r="U105" s="16"/>
+      <c r="V105" s="16"/>
+      <c r="W105" s="16"/>
+    </row>
+    <row r="106" spans="1:23" ht="27" customHeight="1">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+      <c r="Q106" s="16"/>
+      <c r="R106" s="16"/>
+      <c r="S106" s="16"/>
+      <c r="T106" s="16"/>
+      <c r="U106" s="16"/>
+      <c r="V106" s="16"/>
+      <c r="W106" s="16"/>
+    </row>
+    <row r="107" spans="1:23" ht="27" customHeight="1">
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="16"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16"/>
+      <c r="N107" s="16"/>
+      <c r="O107" s="16"/>
+      <c r="P107" s="16"/>
+      <c r="Q107" s="16"/>
+      <c r="R107" s="16"/>
+      <c r="S107" s="16"/>
+      <c r="T107" s="16"/>
+      <c r="U107" s="16"/>
+      <c r="V107" s="16"/>
+      <c r="W107" s="16"/>
+    </row>
+    <row r="108" spans="1:23" ht="27" customHeight="1">
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="16"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16"/>
+      <c r="N108" s="16"/>
+      <c r="O108" s="16"/>
+      <c r="P108" s="16"/>
+      <c r="Q108" s="16"/>
+      <c r="R108" s="16"/>
+      <c r="S108" s="16"/>
+      <c r="T108" s="16"/>
+      <c r="U108" s="16"/>
+      <c r="V108" s="16"/>
+      <c r="W108" s="16"/>
+    </row>
+    <row r="109" spans="1:23" ht="27" customHeight="1">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="16"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16"/>
+      <c r="N109" s="16"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="16"/>
+      <c r="Q109" s="16"/>
+      <c r="R109" s="16"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="16"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="16"/>
+      <c r="W109" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:I37" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6422,22 +6597,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>171</v>
+      <c r="A1" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>173</v>
+      <c r="A2" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6455,25 +6630,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.28515625" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" style="16" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="27.28515625" style="16"/>
+    <col min="1" max="1" width="25.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="27.28515625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="24" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>179</v>
+      <c r="A1" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>181</v>
+      <c r="A2" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6501,7 +6676,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>11</v>
@@ -6530,44 +6705,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -6575,44 +6750,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="C6" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="C7" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -6620,44 +6795,44 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="C9" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -6685,7 +6860,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>11</v>
@@ -6714,44 +6889,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="C3" s="9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6777,7 +6952,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>11</v>
@@ -6806,36 +6981,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
       <c r="C3" s="9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="9" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
@@ -6843,44 +7018,44 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="C6" s="9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
       <c r="C7" s="9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
@@ -6888,44 +7063,44 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12.75" customHeight="1">
       <c r="C9" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
       <c r="C10" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
@@ -6933,44 +7108,44 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
       <c r="C12" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
       <c r="C13" s="9" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
@@ -6978,20 +7153,20 @@
         <v>5</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
       <c r="C15" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
       <c r="C16" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7017,7 +7192,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>11</v>
@@ -7046,16 +7221,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
@@ -7063,58 +7238,58 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
       <c r="C4" s="9" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
       <c r="C5" s="9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
@@ -7122,19 +7297,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
